--- a/stock_descriptive_analysis/stock_data.xlsx
+++ b/stock_descriptive_analysis/stock_data.xlsx
@@ -478,5637 +478,5637 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45204</v>
+        <v>45210</v>
       </c>
       <c r="B2" t="n">
-        <v>1535.050048828125</v>
+        <v>1530.099975585938</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.550048828125</v>
+        <v>1542.150024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>1532.599975585938</v>
+        <v>1528.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1535.75</v>
+        <v>1539.599975585938</v>
       </c>
       <c r="F2" t="n">
-        <v>1515.061157226562</v>
+        <v>1518.859252929688</v>
       </c>
       <c r="G2" t="n">
-        <v>24256337</v>
+        <v>15666680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45205</v>
+        <v>45211</v>
       </c>
       <c r="B3" t="n">
-        <v>1544</v>
+        <v>1536.099975585938</v>
       </c>
       <c r="C3" t="n">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="D3" t="n">
-        <v>1529.849975585938</v>
+        <v>1531.599975585938</v>
       </c>
       <c r="E3" t="n">
-        <v>1534.050048828125</v>
+        <v>1549.849975585938</v>
       </c>
       <c r="F3" t="n">
-        <v>1513.384155273438</v>
+        <v>1528.97119140625</v>
       </c>
       <c r="G3" t="n">
-        <v>8879678</v>
+        <v>11012668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="B4" t="n">
-        <v>1528</v>
+        <v>1540</v>
       </c>
       <c r="C4" t="n">
-        <v>1530</v>
+        <v>1548.800048828125</v>
       </c>
       <c r="D4" t="n">
-        <v>1512</v>
+        <v>1529.949951171875</v>
       </c>
       <c r="E4" t="n">
-        <v>1516.25</v>
+        <v>1535.75</v>
       </c>
       <c r="F4" t="n">
-        <v>1495.823852539062</v>
+        <v>1515.061157226562</v>
       </c>
       <c r="G4" t="n">
-        <v>8227486</v>
+        <v>19872650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45209</v>
+        <v>45215</v>
       </c>
       <c r="B5" t="n">
-        <v>1520.550048828125</v>
+        <v>1531.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1529</v>
+        <v>1534.449951171875</v>
       </c>
       <c r="D5" t="n">
-        <v>1515.199951171875</v>
+        <v>1520.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1524.849975585938</v>
+        <v>1529.599975585938</v>
       </c>
       <c r="F5" t="n">
-        <v>1504.307983398438</v>
+        <v>1508.994018554688</v>
       </c>
       <c r="G5" t="n">
-        <v>16633146</v>
+        <v>8928042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45210</v>
+        <v>45216</v>
       </c>
       <c r="B6" t="n">
-        <v>1530.099975585938</v>
+        <v>1555.75</v>
       </c>
       <c r="C6" t="n">
-        <v>1542.150024414062</v>
+        <v>1555.75</v>
       </c>
       <c r="D6" t="n">
-        <v>1528.5</v>
+        <v>1535</v>
       </c>
       <c r="E6" t="n">
-        <v>1539.599975585938</v>
+        <v>1541.199951171875</v>
       </c>
       <c r="F6" t="n">
-        <v>1518.859252929688</v>
+        <v>1520.437744140625</v>
       </c>
       <c r="G6" t="n">
-        <v>15666680</v>
+        <v>16451279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45211</v>
+        <v>45217</v>
       </c>
       <c r="B7" t="n">
-        <v>1536.099975585938</v>
+        <v>1541.199951171875</v>
       </c>
       <c r="C7" t="n">
-        <v>1552</v>
+        <v>1541.199951171875</v>
       </c>
       <c r="D7" t="n">
-        <v>1531.599975585938</v>
+        <v>1518.099975585938</v>
       </c>
       <c r="E7" t="n">
-        <v>1549.849975585938</v>
+        <v>1519.75</v>
       </c>
       <c r="F7" t="n">
-        <v>1528.97119140625</v>
+        <v>1499.276733398438</v>
       </c>
       <c r="G7" t="n">
-        <v>11012668</v>
+        <v>15608100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45212</v>
+        <v>45218</v>
       </c>
       <c r="B8" t="n">
-        <v>1540</v>
+        <v>1505.400024414062</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.800048828125</v>
+        <v>1526.25</v>
       </c>
       <c r="D8" t="n">
-        <v>1529.949951171875</v>
+        <v>1503.199951171875</v>
       </c>
       <c r="E8" t="n">
-        <v>1535.75</v>
+        <v>1514.949951171875</v>
       </c>
       <c r="F8" t="n">
-        <v>1515.061157226562</v>
+        <v>1494.541381835938</v>
       </c>
       <c r="G8" t="n">
-        <v>19872650</v>
+        <v>15126182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45215</v>
+        <v>45219</v>
       </c>
       <c r="B9" t="n">
-        <v>1531.5</v>
+        <v>1505</v>
       </c>
       <c r="C9" t="n">
-        <v>1534.449951171875</v>
+        <v>1527</v>
       </c>
       <c r="D9" t="n">
-        <v>1520.5</v>
+        <v>1505</v>
       </c>
       <c r="E9" t="n">
-        <v>1529.599975585938</v>
+        <v>1522.800048828125</v>
       </c>
       <c r="F9" t="n">
-        <v>1508.994018554688</v>
+        <v>1502.28564453125</v>
       </c>
       <c r="G9" t="n">
-        <v>8928042</v>
+        <v>10547005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45216</v>
+        <v>45222</v>
       </c>
       <c r="B10" t="n">
-        <v>1555.75</v>
+        <v>1523.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1555.75</v>
+        <v>1528.75</v>
       </c>
       <c r="D10" t="n">
-        <v>1535</v>
+        <v>1500.099975585938</v>
       </c>
       <c r="E10" t="n">
-        <v>1541.199951171875</v>
+        <v>1506.050048828125</v>
       </c>
       <c r="F10" t="n">
-        <v>1520.437744140625</v>
+        <v>1485.761352539062</v>
       </c>
       <c r="G10" t="n">
-        <v>16451279</v>
+        <v>11188068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="B11" t="n">
-        <v>1541.199951171875</v>
+        <v>1521</v>
       </c>
       <c r="C11" t="n">
-        <v>1541.199951171875</v>
+        <v>1522.800048828125</v>
       </c>
       <c r="D11" t="n">
-        <v>1518.099975585938</v>
+        <v>1491.449951171875</v>
       </c>
       <c r="E11" t="n">
-        <v>1519.75</v>
+        <v>1496.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1499.276733398438</v>
+        <v>1476.339965820312</v>
       </c>
       <c r="G11" t="n">
-        <v>15608100</v>
+        <v>14155998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="B12" t="n">
-        <v>1505.400024414062</v>
+        <v>1491.25</v>
       </c>
       <c r="C12" t="n">
-        <v>1526.25</v>
+        <v>1492</v>
       </c>
       <c r="D12" t="n">
-        <v>1503.199951171875</v>
+        <v>1460.25</v>
       </c>
       <c r="E12" t="n">
-        <v>1514.949951171875</v>
+        <v>1463.400024414062</v>
       </c>
       <c r="F12" t="n">
-        <v>1494.541381835938</v>
+        <v>1443.685913085938</v>
       </c>
       <c r="G12" t="n">
-        <v>15126182</v>
+        <v>27780899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B13" t="n">
-        <v>1505</v>
+        <v>1469.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1527</v>
+        <v>1478</v>
       </c>
       <c r="D13" t="n">
-        <v>1505</v>
+        <v>1466.900024414062</v>
       </c>
       <c r="E13" t="n">
-        <v>1522.800048828125</v>
+        <v>1469.150024414062</v>
       </c>
       <c r="F13" t="n">
-        <v>1502.28564453125</v>
+        <v>1449.3583984375</v>
       </c>
       <c r="G13" t="n">
-        <v>10547005</v>
+        <v>15970266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="B14" t="n">
-        <v>1523.5</v>
+        <v>1463.25</v>
       </c>
       <c r="C14" t="n">
-        <v>1528.75</v>
+        <v>1489.949951171875</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.099975585938</v>
+        <v>1461.900024414062</v>
       </c>
       <c r="E14" t="n">
-        <v>1506.050048828125</v>
+        <v>1485.099975585938</v>
       </c>
       <c r="F14" t="n">
-        <v>1485.761352539062</v>
+        <v>1465.093505859375</v>
       </c>
       <c r="G14" t="n">
-        <v>11188068</v>
+        <v>11655491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="B15" t="n">
-        <v>1521</v>
+        <v>1504</v>
       </c>
       <c r="C15" t="n">
-        <v>1522.800048828125</v>
+        <v>1504</v>
       </c>
       <c r="D15" t="n">
-        <v>1491.449951171875</v>
+        <v>1474</v>
       </c>
       <c r="E15" t="n">
-        <v>1496.5</v>
+        <v>1476.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1476.339965820312</v>
+        <v>1456.609375</v>
       </c>
       <c r="G15" t="n">
-        <v>14155998</v>
+        <v>16317412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="B16" t="n">
-        <v>1491.25</v>
+        <v>1462.25</v>
       </c>
       <c r="C16" t="n">
-        <v>1492</v>
+        <v>1477.449951171875</v>
       </c>
       <c r="D16" t="n">
-        <v>1460.25</v>
+        <v>1462.25</v>
       </c>
       <c r="E16" t="n">
-        <v>1463.400024414062</v>
+        <v>1474.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1443.685913085938</v>
+        <v>1454.636352539062</v>
       </c>
       <c r="G16" t="n">
-        <v>27780899</v>
+        <v>16938733</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45226</v>
+        <v>45232</v>
       </c>
       <c r="B17" t="n">
-        <v>1469.5</v>
+        <v>1485</v>
       </c>
       <c r="C17" t="n">
-        <v>1478</v>
+        <v>1490.5</v>
       </c>
       <c r="D17" t="n">
-        <v>1466.900024414062</v>
+        <v>1467.150024414062</v>
       </c>
       <c r="E17" t="n">
-        <v>1469.150024414062</v>
+        <v>1476.75</v>
       </c>
       <c r="F17" t="n">
-        <v>1449.3583984375</v>
+        <v>1456.85595703125</v>
       </c>
       <c r="G17" t="n">
-        <v>15970266</v>
+        <v>22612577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45229</v>
+        <v>45233</v>
       </c>
       <c r="B18" t="n">
-        <v>1463.25</v>
+        <v>1488</v>
       </c>
       <c r="C18" t="n">
-        <v>1489.949951171875</v>
+        <v>1491.400024414062</v>
       </c>
       <c r="D18" t="n">
-        <v>1461.900024414062</v>
+        <v>1481.650024414062</v>
       </c>
       <c r="E18" t="n">
-        <v>1485.099975585938</v>
+        <v>1483.75</v>
       </c>
       <c r="F18" t="n">
-        <v>1465.093505859375</v>
+        <v>1463.76171875</v>
       </c>
       <c r="G18" t="n">
-        <v>11655491</v>
+        <v>9047670</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45230</v>
+        <v>45236</v>
       </c>
       <c r="B19" t="n">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="C19" t="n">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="D19" t="n">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="E19" t="n">
-        <v>1476.5</v>
+        <v>1494.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1456.609375</v>
+        <v>1474.366821289062</v>
       </c>
       <c r="G19" t="n">
-        <v>16317412</v>
+        <v>12796865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45231</v>
+        <v>45237</v>
       </c>
       <c r="B20" t="n">
-        <v>1462.25</v>
+        <v>1494</v>
       </c>
       <c r="C20" t="n">
-        <v>1477.449951171875</v>
+        <v>1494</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.25</v>
+        <v>1477.199951171875</v>
       </c>
       <c r="E20" t="n">
-        <v>1474.5</v>
+        <v>1487.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1454.636352539062</v>
+        <v>1467.214477539062</v>
       </c>
       <c r="G20" t="n">
-        <v>16938733</v>
+        <v>20976424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
       <c r="B21" t="n">
-        <v>1485</v>
+        <v>1483.949951171875</v>
       </c>
       <c r="C21" t="n">
-        <v>1490.5</v>
+        <v>1493.449951171875</v>
       </c>
       <c r="D21" t="n">
-        <v>1467.150024414062</v>
+        <v>1481</v>
       </c>
       <c r="E21" t="n">
-        <v>1476.75</v>
+        <v>1491.550048828125</v>
       </c>
       <c r="F21" t="n">
-        <v>1456.85595703125</v>
+        <v>1471.456665039062</v>
       </c>
       <c r="G21" t="n">
-        <v>22612577</v>
+        <v>15699773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
       <c r="B22" t="n">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C22" t="n">
-        <v>1491.400024414062</v>
+        <v>1492.599975585938</v>
       </c>
       <c r="D22" t="n">
-        <v>1481.650024414062</v>
+        <v>1483.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1483.75</v>
+        <v>1485.650024414062</v>
       </c>
       <c r="F22" t="n">
-        <v>1463.76171875</v>
+        <v>1465.636108398438</v>
       </c>
       <c r="G22" t="n">
-        <v>9047670</v>
+        <v>11058370</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45236</v>
+        <v>45240</v>
       </c>
       <c r="B23" t="n">
-        <v>1498</v>
+        <v>1480.099975585938</v>
       </c>
       <c r="C23" t="n">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D23" t="n">
-        <v>1483</v>
+        <v>1480.050048828125</v>
       </c>
       <c r="E23" t="n">
-        <v>1494.5</v>
+        <v>1491.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1474.366821289062</v>
+        <v>1471.4072265625</v>
       </c>
       <c r="G23" t="n">
-        <v>12796865</v>
+        <v>7007593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45237</v>
+        <v>45243</v>
       </c>
       <c r="B24" t="n">
-        <v>1494</v>
+        <v>1492.099975585938</v>
       </c>
       <c r="C24" t="n">
-        <v>1494</v>
+        <v>1495.949951171875</v>
       </c>
       <c r="D24" t="n">
-        <v>1477.199951171875</v>
+        <v>1485.900024414062</v>
       </c>
       <c r="E24" t="n">
-        <v>1487.25</v>
+        <v>1488.800048828125</v>
       </c>
       <c r="F24" t="n">
-        <v>1467.214477539062</v>
+        <v>1468.74365234375</v>
       </c>
       <c r="G24" t="n">
-        <v>20976424</v>
+        <v>10302957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="B25" t="n">
-        <v>1483.949951171875</v>
+        <v>1504.099975585938</v>
       </c>
       <c r="C25" t="n">
-        <v>1493.449951171875</v>
+        <v>1510.949951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>1481</v>
+        <v>1500.550048828125</v>
       </c>
       <c r="E25" t="n">
-        <v>1491.550048828125</v>
+        <v>1504.400024414062</v>
       </c>
       <c r="F25" t="n">
-        <v>1471.456665039062</v>
+        <v>1484.133544921875</v>
       </c>
       <c r="G25" t="n">
-        <v>15699773</v>
+        <v>20622730</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="B26" t="n">
-        <v>1486</v>
+        <v>1509.699951171875</v>
       </c>
       <c r="C26" t="n">
-        <v>1492.599975585938</v>
+        <v>1519</v>
       </c>
       <c r="D26" t="n">
-        <v>1483.5</v>
+        <v>1503.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1485.650024414062</v>
+        <v>1508.349975585938</v>
       </c>
       <c r="F26" t="n">
-        <v>1465.636108398438</v>
+        <v>1488.0302734375</v>
       </c>
       <c r="G26" t="n">
-        <v>11058370</v>
+        <v>14856919</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B27" t="n">
-        <v>1480.099975585938</v>
+        <v>1490</v>
       </c>
       <c r="C27" t="n">
-        <v>1496</v>
+        <v>1507.5</v>
       </c>
       <c r="D27" t="n">
-        <v>1480.050048828125</v>
+        <v>1489</v>
       </c>
       <c r="E27" t="n">
-        <v>1491.5</v>
+        <v>1505.099975585938</v>
       </c>
       <c r="F27" t="n">
-        <v>1471.4072265625</v>
+        <v>1484.824096679688</v>
       </c>
       <c r="G27" t="n">
-        <v>7007593</v>
+        <v>11850937</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="B28" t="n">
-        <v>1492.099975585938</v>
+        <v>1513</v>
       </c>
       <c r="C28" t="n">
-        <v>1495.949951171875</v>
+        <v>1513</v>
       </c>
       <c r="D28" t="n">
-        <v>1485.900024414062</v>
+        <v>1501.550048828125</v>
       </c>
       <c r="E28" t="n">
-        <v>1488.800048828125</v>
+        <v>1505.199951171875</v>
       </c>
       <c r="F28" t="n">
-        <v>1468.74365234375</v>
+        <v>1484.922729492188</v>
       </c>
       <c r="G28" t="n">
-        <v>10302957</v>
+        <v>9665726</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
       <c r="B29" t="n">
-        <v>1504.099975585938</v>
+        <v>1519</v>
       </c>
       <c r="C29" t="n">
-        <v>1510.949951171875</v>
+        <v>1522</v>
       </c>
       <c r="D29" t="n">
-        <v>1500.550048828125</v>
+        <v>1512.099975585938</v>
       </c>
       <c r="E29" t="n">
-        <v>1504.400024414062</v>
+        <v>1517.949951171875</v>
       </c>
       <c r="F29" t="n">
-        <v>1484.133544921875</v>
+        <v>1497.500854492188</v>
       </c>
       <c r="G29" t="n">
-        <v>20622730</v>
+        <v>12479986</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
       <c r="B30" t="n">
-        <v>1509.699951171875</v>
+        <v>1520</v>
       </c>
       <c r="C30" t="n">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D30" t="n">
-        <v>1503.75</v>
+        <v>1503.550048828125</v>
       </c>
       <c r="E30" t="n">
-        <v>1508.349975585938</v>
+        <v>1512.550048828125</v>
       </c>
       <c r="F30" t="n">
-        <v>1488.0302734375</v>
+        <v>1492.173706054688</v>
       </c>
       <c r="G30" t="n">
-        <v>14856919</v>
+        <v>14561825</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
       <c r="B31" t="n">
-        <v>1490</v>
+        <v>1508.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1507.5</v>
+        <v>1523.849975585938</v>
       </c>
       <c r="D31" t="n">
-        <v>1489</v>
+        <v>1508.5</v>
       </c>
       <c r="E31" t="n">
-        <v>1505.099975585938</v>
+        <v>1521.300048828125</v>
       </c>
       <c r="F31" t="n">
-        <v>1484.824096679688</v>
+        <v>1500.805908203125</v>
       </c>
       <c r="G31" t="n">
-        <v>11850937</v>
+        <v>6523110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B32" t="n">
-        <v>1513</v>
+        <v>1521.199951171875</v>
       </c>
       <c r="C32" t="n">
-        <v>1513</v>
+        <v>1533.150024414062</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.550048828125</v>
+        <v>1519.849975585938</v>
       </c>
       <c r="E32" t="n">
-        <v>1505.199951171875</v>
+        <v>1532.099975585938</v>
       </c>
       <c r="F32" t="n">
-        <v>1484.922729492188</v>
+        <v>1511.460327148438</v>
       </c>
       <c r="G32" t="n">
-        <v>9665726</v>
+        <v>8234596</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45251</v>
+        <v>45258</v>
       </c>
       <c r="B33" t="n">
-        <v>1519</v>
+        <v>1535.199951171875</v>
       </c>
       <c r="C33" t="n">
-        <v>1522</v>
+        <v>1537.25</v>
       </c>
       <c r="D33" t="n">
-        <v>1512.099975585938</v>
+        <v>1525.800048828125</v>
       </c>
       <c r="E33" t="n">
-        <v>1517.949951171875</v>
+        <v>1528.650024414062</v>
       </c>
       <c r="F33" t="n">
-        <v>1497.500854492188</v>
+        <v>1508.056884765625</v>
       </c>
       <c r="G33" t="n">
-        <v>12479986</v>
+        <v>14244669</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45252</v>
+        <v>45259</v>
       </c>
       <c r="B34" t="n">
-        <v>1520</v>
+        <v>1533.900024414062</v>
       </c>
       <c r="C34" t="n">
-        <v>1520</v>
+        <v>1563</v>
       </c>
       <c r="D34" t="n">
-        <v>1503.550048828125</v>
+        <v>1533</v>
       </c>
       <c r="E34" t="n">
-        <v>1512.550048828125</v>
+        <v>1559.150024414062</v>
       </c>
       <c r="F34" t="n">
-        <v>1492.173706054688</v>
+        <v>1538.14599609375</v>
       </c>
       <c r="G34" t="n">
-        <v>14561825</v>
+        <v>17021244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45253</v>
+        <v>45260</v>
       </c>
       <c r="B35" t="n">
-        <v>1508.5</v>
+        <v>1569.150024414062</v>
       </c>
       <c r="C35" t="n">
-        <v>1523.849975585938</v>
+        <v>1572.449951171875</v>
       </c>
       <c r="D35" t="n">
-        <v>1508.5</v>
+        <v>1542.150024414062</v>
       </c>
       <c r="E35" t="n">
-        <v>1521.300048828125</v>
+        <v>1558.800048828125</v>
       </c>
       <c r="F35" t="n">
-        <v>1500.805908203125</v>
+        <v>1537.800659179688</v>
       </c>
       <c r="G35" t="n">
-        <v>6523110</v>
+        <v>34745720</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45254</v>
+        <v>45261</v>
       </c>
       <c r="B36" t="n">
-        <v>1521.199951171875</v>
+        <v>1557.900024414062</v>
       </c>
       <c r="C36" t="n">
-        <v>1533.150024414062</v>
+        <v>1565.75</v>
       </c>
       <c r="D36" t="n">
-        <v>1519.849975585938</v>
+        <v>1552.099975585938</v>
       </c>
       <c r="E36" t="n">
-        <v>1532.099975585938</v>
+        <v>1555.400024414062</v>
       </c>
       <c r="F36" t="n">
-        <v>1511.460327148438</v>
+        <v>1534.446533203125</v>
       </c>
       <c r="G36" t="n">
-        <v>8234596</v>
+        <v>11076768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45258</v>
+        <v>45264</v>
       </c>
       <c r="B37" t="n">
-        <v>1535.199951171875</v>
+        <v>1588</v>
       </c>
       <c r="C37" t="n">
-        <v>1537.25</v>
+        <v>1612</v>
       </c>
       <c r="D37" t="n">
-        <v>1525.800048828125</v>
+        <v>1573.650024414062</v>
       </c>
       <c r="E37" t="n">
-        <v>1528.650024414062</v>
+        <v>1609.400024414062</v>
       </c>
       <c r="F37" t="n">
-        <v>1508.056884765625</v>
+        <v>1587.718994140625</v>
       </c>
       <c r="G37" t="n">
-        <v>14244669</v>
+        <v>25331228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45259</v>
+        <v>45265</v>
       </c>
       <c r="B38" t="n">
-        <v>1533.900024414062</v>
+        <v>1636.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1563</v>
+        <v>1639</v>
       </c>
       <c r="D38" t="n">
-        <v>1533</v>
+        <v>1616.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1559.150024414062</v>
+        <v>1623.699951171875</v>
       </c>
       <c r="F38" t="n">
-        <v>1538.14599609375</v>
+        <v>1601.826293945312</v>
       </c>
       <c r="G38" t="n">
-        <v>17021244</v>
+        <v>26115410</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45260</v>
+        <v>45266</v>
       </c>
       <c r="B39" t="n">
-        <v>1569.150024414062</v>
+        <v>1638.449951171875</v>
       </c>
       <c r="C39" t="n">
-        <v>1572.449951171875</v>
+        <v>1638.449951171875</v>
       </c>
       <c r="D39" t="n">
-        <v>1542.150024414062</v>
+        <v>1616.650024414062</v>
       </c>
       <c r="E39" t="n">
-        <v>1558.800048828125</v>
+        <v>1627.800048828125</v>
       </c>
       <c r="F39" t="n">
-        <v>1537.800659179688</v>
+        <v>1605.871215820312</v>
       </c>
       <c r="G39" t="n">
-        <v>34745720</v>
+        <v>19306530</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45261</v>
+        <v>45267</v>
       </c>
       <c r="B40" t="n">
-        <v>1557.900024414062</v>
+        <v>1625</v>
       </c>
       <c r="C40" t="n">
-        <v>1565.75</v>
+        <v>1634</v>
       </c>
       <c r="D40" t="n">
-        <v>1552.099975585938</v>
+        <v>1616.199951171875</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.400024414062</v>
+        <v>1630.449951171875</v>
       </c>
       <c r="F40" t="n">
-        <v>1534.446533203125</v>
+        <v>1608.4853515625</v>
       </c>
       <c r="G40" t="n">
-        <v>11076768</v>
+        <v>10225193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45264</v>
+        <v>45268</v>
       </c>
       <c r="B41" t="n">
-        <v>1588</v>
+        <v>1630.449951171875</v>
       </c>
       <c r="C41" t="n">
-        <v>1612</v>
+        <v>1655</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.650024414062</v>
+        <v>1630.449951171875</v>
       </c>
       <c r="E41" t="n">
-        <v>1609.400024414062</v>
+        <v>1653.199951171875</v>
       </c>
       <c r="F41" t="n">
-        <v>1587.718994140625</v>
+        <v>1630.928955078125</v>
       </c>
       <c r="G41" t="n">
-        <v>25331228</v>
+        <v>16864019</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45265</v>
+        <v>45271</v>
       </c>
       <c r="B42" t="n">
-        <v>1636.5</v>
+        <v>1650.050048828125</v>
       </c>
       <c r="C42" t="n">
-        <v>1639</v>
+        <v>1663.699951171875</v>
       </c>
       <c r="D42" t="n">
-        <v>1616.5</v>
+        <v>1647</v>
       </c>
       <c r="E42" t="n">
-        <v>1623.699951171875</v>
+        <v>1651</v>
       </c>
       <c r="F42" t="n">
-        <v>1601.826293945312</v>
+        <v>1628.758544921875</v>
       </c>
       <c r="G42" t="n">
-        <v>26115410</v>
+        <v>11593810</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45266</v>
+        <v>45272</v>
       </c>
       <c r="B43" t="n">
-        <v>1638.449951171875</v>
+        <v>1654.199951171875</v>
       </c>
       <c r="C43" t="n">
-        <v>1638.449951171875</v>
+        <v>1656.25</v>
       </c>
       <c r="D43" t="n">
-        <v>1616.650024414062</v>
+        <v>1631.849975585938</v>
       </c>
       <c r="E43" t="n">
-        <v>1627.800048828125</v>
+        <v>1634.599975585938</v>
       </c>
       <c r="F43" t="n">
-        <v>1605.871215820312</v>
+        <v>1612.579467773438</v>
       </c>
       <c r="G43" t="n">
-        <v>19306530</v>
+        <v>18290738</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45267</v>
+        <v>45273</v>
       </c>
       <c r="B44" t="n">
-        <v>1625</v>
+        <v>1632.449951171875</v>
       </c>
       <c r="C44" t="n">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D44" t="n">
-        <v>1616.199951171875</v>
+        <v>1615.099975585938</v>
       </c>
       <c r="E44" t="n">
-        <v>1630.449951171875</v>
+        <v>1630.900024414062</v>
       </c>
       <c r="F44" t="n">
-        <v>1608.4853515625</v>
+        <v>1608.929321289062</v>
       </c>
       <c r="G44" t="n">
-        <v>10225193</v>
+        <v>14673457</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45268</v>
+        <v>45274</v>
       </c>
       <c r="B45" t="n">
-        <v>1630.449951171875</v>
+        <v>1646</v>
       </c>
       <c r="C45" t="n">
-        <v>1655</v>
+        <v>1658.949951171875</v>
       </c>
       <c r="D45" t="n">
-        <v>1630.449951171875</v>
+        <v>1645</v>
       </c>
       <c r="E45" t="n">
-        <v>1653.199951171875</v>
+        <v>1650.150024414062</v>
       </c>
       <c r="F45" t="n">
-        <v>1630.928955078125</v>
+        <v>1627.920043945312</v>
       </c>
       <c r="G45" t="n">
-        <v>16864019</v>
+        <v>17586183</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45271</v>
+        <v>45275</v>
       </c>
       <c r="B46" t="n">
-        <v>1650.050048828125</v>
+        <v>1650</v>
       </c>
       <c r="C46" t="n">
-        <v>1663.699951171875</v>
+        <v>1668</v>
       </c>
       <c r="D46" t="n">
-        <v>1647</v>
+        <v>1646.599975585938</v>
       </c>
       <c r="E46" t="n">
-        <v>1651</v>
+        <v>1656.550048828125</v>
       </c>
       <c r="F46" t="n">
-        <v>1628.758544921875</v>
+        <v>1634.23388671875</v>
       </c>
       <c r="G46" t="n">
-        <v>11593810</v>
+        <v>69418565</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45272</v>
+        <v>45278</v>
       </c>
       <c r="B47" t="n">
-        <v>1654.199951171875</v>
+        <v>1660.699951171875</v>
       </c>
       <c r="C47" t="n">
-        <v>1656.25</v>
+        <v>1664.699951171875</v>
       </c>
       <c r="D47" t="n">
-        <v>1631.849975585938</v>
+        <v>1650.949951171875</v>
       </c>
       <c r="E47" t="n">
-        <v>1634.599975585938</v>
+        <v>1655.699951171875</v>
       </c>
       <c r="F47" t="n">
-        <v>1612.579467773438</v>
+        <v>1633.395263671875</v>
       </c>
       <c r="G47" t="n">
-        <v>18290738</v>
+        <v>9007377</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45273</v>
+        <v>45279</v>
       </c>
       <c r="B48" t="n">
-        <v>1632.449951171875</v>
+        <v>1650</v>
       </c>
       <c r="C48" t="n">
-        <v>1636</v>
+        <v>1658.650024414062</v>
       </c>
       <c r="D48" t="n">
-        <v>1615.099975585938</v>
+        <v>1644.050048828125</v>
       </c>
       <c r="E48" t="n">
-        <v>1630.900024414062</v>
+        <v>1652.900024414062</v>
       </c>
       <c r="F48" t="n">
-        <v>1608.929321289062</v>
+        <v>1630.633056640625</v>
       </c>
       <c r="G48" t="n">
-        <v>14673457</v>
+        <v>12004223</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45274</v>
+        <v>45280</v>
       </c>
       <c r="B49" t="n">
-        <v>1646</v>
+        <v>1658</v>
       </c>
       <c r="C49" t="n">
-        <v>1658.949951171875</v>
+        <v>1668.949951171875</v>
       </c>
       <c r="D49" t="n">
-        <v>1645</v>
+        <v>1644.449951171875</v>
       </c>
       <c r="E49" t="n">
-        <v>1650.150024414062</v>
+        <v>1657</v>
       </c>
       <c r="F49" t="n">
-        <v>1627.920043945312</v>
+        <v>1634.677734375</v>
       </c>
       <c r="G49" t="n">
-        <v>17586183</v>
+        <v>17116260</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45275</v>
+        <v>45281</v>
       </c>
       <c r="B50" t="n">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="C50" t="n">
-        <v>1668</v>
+        <v>1689.75</v>
       </c>
       <c r="D50" t="n">
-        <v>1646.599975585938</v>
+        <v>1650.25</v>
       </c>
       <c r="E50" t="n">
-        <v>1656.550048828125</v>
+        <v>1686.699951171875</v>
       </c>
       <c r="F50" t="n">
-        <v>1634.23388671875</v>
+        <v>1663.9775390625</v>
       </c>
       <c r="G50" t="n">
-        <v>69418565</v>
+        <v>18294620</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B51" t="n">
-        <v>1660.699951171875</v>
+        <v>1683.599975585938</v>
       </c>
       <c r="C51" t="n">
-        <v>1664.699951171875</v>
+        <v>1685.900024414062</v>
       </c>
       <c r="D51" t="n">
-        <v>1650.949951171875</v>
+        <v>1667.099975585938</v>
       </c>
       <c r="E51" t="n">
-        <v>1655.699951171875</v>
+        <v>1670.849975585938</v>
       </c>
       <c r="F51" t="n">
-        <v>1633.395263671875</v>
+        <v>1648.341186523438</v>
       </c>
       <c r="G51" t="n">
-        <v>9007377</v>
+        <v>24289425</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45279</v>
+        <v>45286</v>
       </c>
       <c r="B52" t="n">
-        <v>1650</v>
+        <v>1673.25</v>
       </c>
       <c r="C52" t="n">
-        <v>1658.650024414062</v>
+        <v>1685.949951171875</v>
       </c>
       <c r="D52" t="n">
-        <v>1644.050048828125</v>
+        <v>1668.550048828125</v>
       </c>
       <c r="E52" t="n">
-        <v>1652.900024414062</v>
+        <v>1682.449951171875</v>
       </c>
       <c r="F52" t="n">
-        <v>1630.633056640625</v>
+        <v>1659.784912109375</v>
       </c>
       <c r="G52" t="n">
-        <v>12004223</v>
+        <v>9022928</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
       <c r="B53" t="n">
-        <v>1658</v>
+        <v>1681.5</v>
       </c>
       <c r="C53" t="n">
-        <v>1668.949951171875</v>
+        <v>1706.5</v>
       </c>
       <c r="D53" t="n">
-        <v>1644.449951171875</v>
+        <v>1678.599975585938</v>
       </c>
       <c r="E53" t="n">
-        <v>1657</v>
+        <v>1703.300048828125</v>
       </c>
       <c r="F53" t="n">
-        <v>1634.677734375</v>
+        <v>1680.354125976562</v>
       </c>
       <c r="G53" t="n">
-        <v>17116260</v>
+        <v>13504539</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45281</v>
+        <v>45288</v>
       </c>
       <c r="B54" t="n">
-        <v>1657</v>
+        <v>1709.300048828125</v>
       </c>
       <c r="C54" t="n">
-        <v>1689.75</v>
+        <v>1721.400024414062</v>
       </c>
       <c r="D54" t="n">
-        <v>1650.25</v>
+        <v>1702</v>
       </c>
       <c r="E54" t="n">
-        <v>1686.699951171875</v>
+        <v>1705.25</v>
       </c>
       <c r="F54" t="n">
-        <v>1663.9775390625</v>
+        <v>1682.277709960938</v>
       </c>
       <c r="G54" t="n">
-        <v>18294620</v>
+        <v>22038235</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="B55" t="n">
-        <v>1683.599975585938</v>
+        <v>1697</v>
       </c>
       <c r="C55" t="n">
-        <v>1685.900024414062</v>
+        <v>1714.900024414062</v>
       </c>
       <c r="D55" t="n">
-        <v>1667.099975585938</v>
+        <v>1696</v>
       </c>
       <c r="E55" t="n">
-        <v>1670.849975585938</v>
+        <v>1709.25</v>
       </c>
       <c r="F55" t="n">
-        <v>1648.341186523438</v>
+        <v>1686.223876953125</v>
       </c>
       <c r="G55" t="n">
-        <v>24289425</v>
+        <v>12505713</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45286</v>
+        <v>45292</v>
       </c>
       <c r="B56" t="n">
-        <v>1673.25</v>
+        <v>1706</v>
       </c>
       <c r="C56" t="n">
-        <v>1685.949951171875</v>
+        <v>1709.150024414062</v>
       </c>
       <c r="D56" t="n">
-        <v>1668.550048828125</v>
+        <v>1692</v>
       </c>
       <c r="E56" t="n">
-        <v>1682.449951171875</v>
+        <v>1698.099975585938</v>
       </c>
       <c r="F56" t="n">
-        <v>1659.784912109375</v>
+        <v>1675.223999023438</v>
       </c>
       <c r="G56" t="n">
-        <v>9022928</v>
+        <v>7119843</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B57" t="n">
-        <v>1681.5</v>
+        <v>1698.800048828125</v>
       </c>
       <c r="C57" t="n">
-        <v>1706.5</v>
+        <v>1702.800048828125</v>
       </c>
       <c r="D57" t="n">
-        <v>1678.599975585938</v>
+        <v>1688.699951171875</v>
       </c>
       <c r="E57" t="n">
-        <v>1703.300048828125</v>
+        <v>1699.099975585938</v>
       </c>
       <c r="F57" t="n">
-        <v>1680.354125976562</v>
+        <v>1676.210571289062</v>
       </c>
       <c r="G57" t="n">
-        <v>13504539</v>
+        <v>14621046</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B58" t="n">
-        <v>1709.300048828125</v>
+        <v>1702</v>
       </c>
       <c r="C58" t="n">
-        <v>1721.400024414062</v>
+        <v>1704.699951171875</v>
       </c>
       <c r="D58" t="n">
-        <v>1702</v>
+        <v>1668.949951171875</v>
       </c>
       <c r="E58" t="n">
-        <v>1705.25</v>
+        <v>1672.900024414062</v>
       </c>
       <c r="F58" t="n">
-        <v>1682.277709960938</v>
+        <v>1650.363525390625</v>
       </c>
       <c r="G58" t="n">
-        <v>22038235</v>
+        <v>14194881</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B59" t="n">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="C59" t="n">
-        <v>1714.900024414062</v>
+        <v>1694.949951171875</v>
       </c>
       <c r="D59" t="n">
-        <v>1696</v>
+        <v>1670.699951171875</v>
       </c>
       <c r="E59" t="n">
-        <v>1709.25</v>
+        <v>1690.849975585938</v>
       </c>
       <c r="F59" t="n">
-        <v>1686.223876953125</v>
+        <v>1668.07177734375</v>
       </c>
       <c r="G59" t="n">
-        <v>12505713</v>
+        <v>13367028</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B60" t="n">
-        <v>1706</v>
+        <v>1687.150024414062</v>
       </c>
       <c r="C60" t="n">
-        <v>1709.150024414062</v>
+        <v>1704.900024414062</v>
       </c>
       <c r="D60" t="n">
-        <v>1692</v>
+        <v>1668.099975585938</v>
       </c>
       <c r="E60" t="n">
-        <v>1698.099975585938</v>
+        <v>1682.199951171875</v>
       </c>
       <c r="F60" t="n">
-        <v>1675.223999023438</v>
+        <v>1659.538208007812</v>
       </c>
       <c r="G60" t="n">
-        <v>7119843</v>
+        <v>15944735</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45293</v>
+        <v>45299</v>
       </c>
       <c r="B61" t="n">
-        <v>1698.800048828125</v>
+        <v>1678.5</v>
       </c>
       <c r="C61" t="n">
-        <v>1702.800048828125</v>
+        <v>1682.349975585938</v>
       </c>
       <c r="D61" t="n">
-        <v>1688.699951171875</v>
+        <v>1660</v>
       </c>
       <c r="E61" t="n">
-        <v>1699.099975585938</v>
+        <v>1663.449951171875</v>
       </c>
       <c r="F61" t="n">
-        <v>1676.210571289062</v>
+        <v>1641.040771484375</v>
       </c>
       <c r="G61" t="n">
-        <v>14621046</v>
+        <v>8999235</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45294</v>
+        <v>45300</v>
       </c>
       <c r="B62" t="n">
-        <v>1702</v>
+        <v>1667.150024414062</v>
       </c>
       <c r="C62" t="n">
-        <v>1704.699951171875</v>
+        <v>1677.800048828125</v>
       </c>
       <c r="D62" t="n">
-        <v>1668.949951171875</v>
+        <v>1646.75</v>
       </c>
       <c r="E62" t="n">
-        <v>1672.900024414062</v>
+        <v>1650.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1650.363525390625</v>
+        <v>1628.265258789062</v>
       </c>
       <c r="G62" t="n">
-        <v>14194881</v>
+        <v>12663444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45295</v>
+        <v>45301</v>
       </c>
       <c r="B63" t="n">
-        <v>1678</v>
+        <v>1643</v>
       </c>
       <c r="C63" t="n">
-        <v>1694.949951171875</v>
+        <v>1659.949951171875</v>
       </c>
       <c r="D63" t="n">
-        <v>1670.699951171875</v>
+        <v>1641.400024414062</v>
       </c>
       <c r="E63" t="n">
-        <v>1690.849975585938</v>
+        <v>1655.949951171875</v>
       </c>
       <c r="F63" t="n">
-        <v>1668.07177734375</v>
+        <v>1633.641845703125</v>
       </c>
       <c r="G63" t="n">
-        <v>13367028</v>
+        <v>8057912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45296</v>
+        <v>45302</v>
       </c>
       <c r="B64" t="n">
-        <v>1687.150024414062</v>
+        <v>1660</v>
       </c>
       <c r="C64" t="n">
-        <v>1704.900024414062</v>
+        <v>1662.900024414062</v>
       </c>
       <c r="D64" t="n">
-        <v>1668.099975585938</v>
+        <v>1643</v>
       </c>
       <c r="E64" t="n">
-        <v>1682.199951171875</v>
+        <v>1649</v>
       </c>
       <c r="F64" t="n">
-        <v>1659.538208007812</v>
+        <v>1626.785522460938</v>
       </c>
       <c r="G64" t="n">
-        <v>15944735</v>
+        <v>9157005</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45299</v>
+        <v>45303</v>
       </c>
       <c r="B65" t="n">
-        <v>1678.5</v>
+        <v>1652</v>
       </c>
       <c r="C65" t="n">
-        <v>1682.349975585938</v>
+        <v>1656</v>
       </c>
       <c r="D65" t="n">
-        <v>1660</v>
+        <v>1633.599975585938</v>
       </c>
       <c r="E65" t="n">
-        <v>1663.449951171875</v>
+        <v>1641.199951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>1641.040771484375</v>
+        <v>1619.090576171875</v>
       </c>
       <c r="G65" t="n">
-        <v>8999235</v>
+        <v>9886776</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45300</v>
+        <v>45306</v>
       </c>
       <c r="B66" t="n">
-        <v>1667.150024414062</v>
+        <v>1647.699951171875</v>
       </c>
       <c r="C66" t="n">
-        <v>1677.800048828125</v>
+        <v>1680.900024414062</v>
       </c>
       <c r="D66" t="n">
-        <v>1646.75</v>
+        <v>1643.599975585938</v>
       </c>
       <c r="E66" t="n">
-        <v>1650.5</v>
+        <v>1672.800048828125</v>
       </c>
       <c r="F66" t="n">
-        <v>1628.265258789062</v>
+        <v>1650.264892578125</v>
       </c>
       <c r="G66" t="n">
-        <v>12663444</v>
+        <v>14160178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B67" t="n">
-        <v>1643</v>
+        <v>1673</v>
       </c>
       <c r="C67" t="n">
-        <v>1659.949951171875</v>
+        <v>1683.650024414062</v>
       </c>
       <c r="D67" t="n">
-        <v>1641.400024414062</v>
+        <v>1658.099975585938</v>
       </c>
       <c r="E67" t="n">
-        <v>1655.949951171875</v>
+        <v>1679.150024414062</v>
       </c>
       <c r="F67" t="n">
-        <v>1633.641845703125</v>
+        <v>1656.529418945312</v>
       </c>
       <c r="G67" t="n">
-        <v>8057912</v>
+        <v>12661250</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B68" t="n">
-        <v>1660</v>
+        <v>1570</v>
       </c>
       <c r="C68" t="n">
-        <v>1662.900024414062</v>
+        <v>1596.800048828125</v>
       </c>
       <c r="D68" t="n">
-        <v>1643</v>
+        <v>1528.400024414062</v>
       </c>
       <c r="E68" t="n">
-        <v>1649</v>
+        <v>1537.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1626.785522460938</v>
+        <v>1516.78759765625</v>
       </c>
       <c r="G68" t="n">
-        <v>9157005</v>
+        <v>85072618</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B69" t="n">
-        <v>1652</v>
+        <v>1494</v>
       </c>
       <c r="C69" t="n">
-        <v>1656</v>
+        <v>1515</v>
       </c>
       <c r="D69" t="n">
-        <v>1633.599975585938</v>
+        <v>1480.050048828125</v>
       </c>
       <c r="E69" t="n">
-        <v>1641.199951171875</v>
+        <v>1486.150024414062</v>
       </c>
       <c r="F69" t="n">
-        <v>1619.090576171875</v>
+        <v>1466.12939453125</v>
       </c>
       <c r="G69" t="n">
-        <v>9886776</v>
+        <v>80535465</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
       <c r="B70" t="n">
-        <v>1647.699951171875</v>
+        <v>1505.949951171875</v>
       </c>
       <c r="C70" t="n">
-        <v>1680.900024414062</v>
+        <v>1510.25</v>
       </c>
       <c r="D70" t="n">
-        <v>1643.599975585938</v>
+        <v>1468.400024414062</v>
       </c>
       <c r="E70" t="n">
-        <v>1672.800048828125</v>
+        <v>1470.650024414062</v>
       </c>
       <c r="F70" t="n">
-        <v>1650.264892578125</v>
+        <v>1450.838134765625</v>
       </c>
       <c r="G70" t="n">
-        <v>14160178</v>
+        <v>54800269</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45307</v>
+        <v>45314</v>
       </c>
       <c r="B71" t="n">
-        <v>1673</v>
+        <v>1465</v>
       </c>
       <c r="C71" t="n">
-        <v>1683.650024414062</v>
+        <v>1474.699951171875</v>
       </c>
       <c r="D71" t="n">
-        <v>1658.099975585938</v>
+        <v>1425</v>
       </c>
       <c r="E71" t="n">
-        <v>1679.150024414062</v>
+        <v>1427.349975585938</v>
       </c>
       <c r="F71" t="n">
-        <v>1656.529418945312</v>
+        <v>1408.121459960938</v>
       </c>
       <c r="G71" t="n">
-        <v>12661250</v>
+        <v>57734701</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45308</v>
+        <v>45315</v>
       </c>
       <c r="B72" t="n">
-        <v>1570</v>
+        <v>1380.25</v>
       </c>
       <c r="C72" t="n">
-        <v>1596.800048828125</v>
+        <v>1458.449951171875</v>
       </c>
       <c r="D72" t="n">
-        <v>1528.400024414062</v>
+        <v>1380.25</v>
       </c>
       <c r="E72" t="n">
-        <v>1537.5</v>
+        <v>1455.900024414062</v>
       </c>
       <c r="F72" t="n">
-        <v>1516.78759765625</v>
+        <v>1436.286865234375</v>
       </c>
       <c r="G72" t="n">
-        <v>85072618</v>
+        <v>43002202</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="B73" t="n">
-        <v>1494</v>
+        <v>1452.5</v>
       </c>
       <c r="C73" t="n">
-        <v>1515</v>
+        <v>1457.349975585938</v>
       </c>
       <c r="D73" t="n">
-        <v>1480.050048828125</v>
+        <v>1419.400024414062</v>
       </c>
       <c r="E73" t="n">
-        <v>1486.150024414062</v>
+        <v>1434.900024414062</v>
       </c>
       <c r="F73" t="n">
-        <v>1466.12939453125</v>
+        <v>1415.56982421875</v>
       </c>
       <c r="G73" t="n">
-        <v>80535465</v>
+        <v>49470926</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45310</v>
+        <v>45320</v>
       </c>
       <c r="B74" t="n">
-        <v>1505.949951171875</v>
+        <v>1448.050048828125</v>
       </c>
       <c r="C74" t="n">
-        <v>1510.25</v>
+        <v>1462.800048828125</v>
       </c>
       <c r="D74" t="n">
-        <v>1468.400024414062</v>
+        <v>1445.800048828125</v>
       </c>
       <c r="E74" t="n">
-        <v>1470.650024414062</v>
+        <v>1454.650024414062</v>
       </c>
       <c r="F74" t="n">
-        <v>1450.838134765625</v>
+        <v>1435.0537109375</v>
       </c>
       <c r="G74" t="n">
-        <v>54800269</v>
+        <v>32822749</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45314</v>
+        <v>45321</v>
       </c>
       <c r="B75" t="n">
-        <v>1465</v>
+        <v>1454.550048828125</v>
       </c>
       <c r="C75" t="n">
-        <v>1474.699951171875</v>
+        <v>1463.199951171875</v>
       </c>
       <c r="D75" t="n">
-        <v>1425</v>
+        <v>1440.900024414062</v>
       </c>
       <c r="E75" t="n">
-        <v>1427.349975585938</v>
+        <v>1444.300048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>1408.121459960938</v>
+        <v>1424.843139648438</v>
       </c>
       <c r="G75" t="n">
-        <v>57734701</v>
+        <v>20864384</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45315</v>
+        <v>45322</v>
       </c>
       <c r="B76" t="n">
-        <v>1380.25</v>
+        <v>1439.5</v>
       </c>
       <c r="C76" t="n">
-        <v>1458.449951171875</v>
+        <v>1474.949951171875</v>
       </c>
       <c r="D76" t="n">
-        <v>1380.25</v>
+        <v>1436.800048828125</v>
       </c>
       <c r="E76" t="n">
-        <v>1455.900024414062</v>
+        <v>1462.550048828125</v>
       </c>
       <c r="F76" t="n">
-        <v>1436.286865234375</v>
+        <v>1442.847290039062</v>
       </c>
       <c r="G76" t="n">
-        <v>43002202</v>
+        <v>32880520</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45316</v>
+        <v>45323</v>
       </c>
       <c r="B77" t="n">
-        <v>1452.5</v>
+        <v>1465.050048828125</v>
       </c>
       <c r="C77" t="n">
-        <v>1457.349975585938</v>
+        <v>1473.599975585938</v>
       </c>
       <c r="D77" t="n">
-        <v>1419.400024414062</v>
+        <v>1456.050048828125</v>
       </c>
       <c r="E77" t="n">
-        <v>1434.900024414062</v>
+        <v>1466.349975585938</v>
       </c>
       <c r="F77" t="n">
-        <v>1415.56982421875</v>
+        <v>1446.596069335938</v>
       </c>
       <c r="G77" t="n">
-        <v>49470926</v>
+        <v>16345370</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B78" t="n">
-        <v>1448.050048828125</v>
+        <v>1475</v>
       </c>
       <c r="C78" t="n">
-        <v>1462.800048828125</v>
+        <v>1480.849975585938</v>
       </c>
       <c r="D78" t="n">
-        <v>1445.800048828125</v>
+        <v>1442.050048828125</v>
       </c>
       <c r="E78" t="n">
-        <v>1454.650024414062</v>
+        <v>1446.150024414062</v>
       </c>
       <c r="F78" t="n">
-        <v>1435.0537109375</v>
+        <v>1426.668212890625</v>
       </c>
       <c r="G78" t="n">
-        <v>32822749</v>
+        <v>22433877</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45321</v>
+        <v>45327</v>
       </c>
       <c r="B79" t="n">
-        <v>1454.550048828125</v>
+        <v>1446</v>
       </c>
       <c r="C79" t="n">
-        <v>1463.199951171875</v>
+        <v>1451.900024414062</v>
       </c>
       <c r="D79" t="n">
-        <v>1440.900024414062</v>
+        <v>1434.050048828125</v>
       </c>
       <c r="E79" t="n">
-        <v>1444.300048828125</v>
+        <v>1444.849975585938</v>
       </c>
       <c r="F79" t="n">
-        <v>1424.843139648438</v>
+        <v>1425.3857421875</v>
       </c>
       <c r="G79" t="n">
-        <v>20864384</v>
+        <v>19302523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45322</v>
+        <v>45328</v>
       </c>
       <c r="B80" t="n">
-        <v>1439.5</v>
+        <v>1445.550048828125</v>
       </c>
       <c r="C80" t="n">
-        <v>1474.949951171875</v>
+        <v>1449.699951171875</v>
       </c>
       <c r="D80" t="n">
-        <v>1436.800048828125</v>
+        <v>1432.599975585938</v>
       </c>
       <c r="E80" t="n">
-        <v>1462.550048828125</v>
+        <v>1444.099975585938</v>
       </c>
       <c r="F80" t="n">
-        <v>1442.847290039062</v>
+        <v>1424.645751953125</v>
       </c>
       <c r="G80" t="n">
-        <v>32880520</v>
+        <v>20537870</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45323</v>
+        <v>45329</v>
       </c>
       <c r="B81" t="n">
-        <v>1465.050048828125</v>
+        <v>1453</v>
       </c>
       <c r="C81" t="n">
-        <v>1473.599975585938</v>
+        <v>1453.800048828125</v>
       </c>
       <c r="D81" t="n">
-        <v>1456.050048828125</v>
+        <v>1426.650024414062</v>
       </c>
       <c r="E81" t="n">
-        <v>1466.349975585938</v>
+        <v>1429.949951171875</v>
       </c>
       <c r="F81" t="n">
-        <v>1446.596069335938</v>
+        <v>1410.686401367188</v>
       </c>
       <c r="G81" t="n">
-        <v>16345370</v>
+        <v>27418543</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B82" t="n">
-        <v>1475</v>
+        <v>1429.849975585938</v>
       </c>
       <c r="C82" t="n">
-        <v>1480.849975585938</v>
+        <v>1438.949951171875</v>
       </c>
       <c r="D82" t="n">
-        <v>1442.050048828125</v>
+        <v>1400.5</v>
       </c>
       <c r="E82" t="n">
-        <v>1446.150024414062</v>
+        <v>1403.050048828125</v>
       </c>
       <c r="F82" t="n">
-        <v>1426.668212890625</v>
+        <v>1384.14892578125</v>
       </c>
       <c r="G82" t="n">
-        <v>22433877</v>
+        <v>34553062</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="B83" t="n">
-        <v>1446</v>
+        <v>1392.150024414062</v>
       </c>
       <c r="C83" t="n">
-        <v>1451.900024414062</v>
+        <v>1414.199951171875</v>
       </c>
       <c r="D83" t="n">
-        <v>1434.050048828125</v>
+        <v>1387</v>
       </c>
       <c r="E83" t="n">
-        <v>1444.849975585938</v>
+        <v>1403.599975585938</v>
       </c>
       <c r="F83" t="n">
-        <v>1425.3857421875</v>
+        <v>1384.69140625</v>
       </c>
       <c r="G83" t="n">
-        <v>19302523</v>
+        <v>28321062</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B84" t="n">
-        <v>1445.550048828125</v>
+        <v>1399.650024414062</v>
       </c>
       <c r="C84" t="n">
-        <v>1449.699951171875</v>
+        <v>1413.650024414062</v>
       </c>
       <c r="D84" t="n">
-        <v>1432.599975585938</v>
+        <v>1383.349975585938</v>
       </c>
       <c r="E84" t="n">
-        <v>1444.099975585938</v>
+        <v>1390</v>
       </c>
       <c r="F84" t="n">
-        <v>1424.645751953125</v>
+        <v>1371.274658203125</v>
       </c>
       <c r="G84" t="n">
-        <v>20537870</v>
+        <v>17223906</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B85" t="n">
-        <v>1453</v>
+        <v>1391.949951171875</v>
       </c>
       <c r="C85" t="n">
-        <v>1453.800048828125</v>
+        <v>1404.349975585938</v>
       </c>
       <c r="D85" t="n">
-        <v>1426.650024414062</v>
+        <v>1384.349975585938</v>
       </c>
       <c r="E85" t="n">
-        <v>1429.949951171875</v>
+        <v>1394.449951171875</v>
       </c>
       <c r="F85" t="n">
-        <v>1410.686401367188</v>
+        <v>1375.664672851562</v>
       </c>
       <c r="G85" t="n">
-        <v>27418543</v>
+        <v>28790497</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B86" t="n">
-        <v>1429.849975585938</v>
+        <v>1376</v>
       </c>
       <c r="C86" t="n">
-        <v>1438.949951171875</v>
+        <v>1391.5</v>
       </c>
       <c r="D86" t="n">
-        <v>1400.5</v>
+        <v>1363.550048828125</v>
       </c>
       <c r="E86" t="n">
-        <v>1403.050048828125</v>
+        <v>1384.050048828125</v>
       </c>
       <c r="F86" t="n">
-        <v>1384.14892578125</v>
+        <v>1365.40478515625</v>
       </c>
       <c r="G86" t="n">
-        <v>34553062</v>
+        <v>45660405</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B87" t="n">
-        <v>1392.150024414062</v>
+        <v>1385</v>
       </c>
       <c r="C87" t="n">
-        <v>1414.199951171875</v>
+        <v>1415.5</v>
       </c>
       <c r="D87" t="n">
-        <v>1387</v>
+        <v>1384.349975585938</v>
       </c>
       <c r="E87" t="n">
-        <v>1403.599975585938</v>
+        <v>1414.050048828125</v>
       </c>
       <c r="F87" t="n">
-        <v>1384.69140625</v>
+        <v>1395.000732421875</v>
       </c>
       <c r="G87" t="n">
-        <v>28321062</v>
+        <v>20792472</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B88" t="n">
-        <v>1399.650024414062</v>
+        <v>1423.900024414062</v>
       </c>
       <c r="C88" t="n">
-        <v>1413.650024414062</v>
+        <v>1427.699951171875</v>
       </c>
       <c r="D88" t="n">
-        <v>1383.349975585938</v>
+        <v>1408.449951171875</v>
       </c>
       <c r="E88" t="n">
-        <v>1390</v>
+        <v>1419.900024414062</v>
       </c>
       <c r="F88" t="n">
-        <v>1371.274658203125</v>
+        <v>1400.771850585938</v>
       </c>
       <c r="G88" t="n">
-        <v>17223906</v>
+        <v>16087871</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="B89" t="n">
-        <v>1391.949951171875</v>
+        <v>1429</v>
       </c>
       <c r="C89" t="n">
-        <v>1404.349975585938</v>
+        <v>1429</v>
       </c>
       <c r="D89" t="n">
-        <v>1384.349975585938</v>
+        <v>1415.199951171875</v>
       </c>
       <c r="E89" t="n">
-        <v>1394.449951171875</v>
+        <v>1417.099975585938</v>
       </c>
       <c r="F89" t="n">
-        <v>1375.664672851562</v>
+        <v>1398.009521484375</v>
       </c>
       <c r="G89" t="n">
-        <v>28790497</v>
+        <v>17225878</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B90" t="n">
-        <v>1376</v>
+        <v>1415</v>
       </c>
       <c r="C90" t="n">
-        <v>1391.5</v>
+        <v>1457.25</v>
       </c>
       <c r="D90" t="n">
-        <v>1363.550048828125</v>
+        <v>1411.800048828125</v>
       </c>
       <c r="E90" t="n">
-        <v>1384.050048828125</v>
+        <v>1454.300048828125</v>
       </c>
       <c r="F90" t="n">
-        <v>1365.40478515625</v>
+        <v>1434.70849609375</v>
       </c>
       <c r="G90" t="n">
-        <v>45660405</v>
+        <v>28066754</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B91" t="n">
-        <v>1385</v>
+        <v>1464</v>
       </c>
       <c r="C91" t="n">
-        <v>1415.5</v>
+        <v>1464</v>
       </c>
       <c r="D91" t="n">
-        <v>1384.349975585938</v>
+        <v>1435</v>
       </c>
       <c r="E91" t="n">
-        <v>1414.050048828125</v>
+        <v>1439.150024414062</v>
       </c>
       <c r="F91" t="n">
-        <v>1395.000732421875</v>
+        <v>1419.762573242188</v>
       </c>
       <c r="G91" t="n">
-        <v>20792472</v>
+        <v>22946568</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B92" t="n">
-        <v>1423.900024414062</v>
+        <v>1417.75</v>
       </c>
       <c r="C92" t="n">
-        <v>1427.699951171875</v>
+        <v>1428.800048828125</v>
       </c>
       <c r="D92" t="n">
-        <v>1408.449951171875</v>
+        <v>1412.199951171875</v>
       </c>
       <c r="E92" t="n">
-        <v>1419.900024414062</v>
+        <v>1419.550048828125</v>
       </c>
       <c r="F92" t="n">
-        <v>1400.771850585938</v>
+        <v>1400.426635742188</v>
       </c>
       <c r="G92" t="n">
-        <v>16087871</v>
+        <v>25280441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="B93" t="n">
-        <v>1429</v>
+        <v>1422.550048828125</v>
       </c>
       <c r="C93" t="n">
-        <v>1429</v>
+        <v>1433.900024414062</v>
       </c>
       <c r="D93" t="n">
-        <v>1415.199951171875</v>
+        <v>1418</v>
       </c>
       <c r="E93" t="n">
-        <v>1417.099975585938</v>
+        <v>1420.599975585938</v>
       </c>
       <c r="F93" t="n">
-        <v>1398.009521484375</v>
+        <v>1401.46240234375</v>
       </c>
       <c r="G93" t="n">
-        <v>17225878</v>
+        <v>14916726</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45342</v>
+        <v>45348</v>
       </c>
       <c r="B94" t="n">
-        <v>1415</v>
+        <v>1413.550048828125</v>
       </c>
       <c r="C94" t="n">
-        <v>1457.25</v>
+        <v>1434.849975585938</v>
       </c>
       <c r="D94" t="n">
-        <v>1411.800048828125</v>
+        <v>1413.550048828125</v>
       </c>
       <c r="E94" t="n">
-        <v>1454.300048828125</v>
+        <v>1422.300048828125</v>
       </c>
       <c r="F94" t="n">
-        <v>1434.70849609375</v>
+        <v>1403.139526367188</v>
       </c>
       <c r="G94" t="n">
-        <v>28066754</v>
+        <v>11753435</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45343</v>
+        <v>45349</v>
       </c>
       <c r="B95" t="n">
-        <v>1464</v>
+        <v>1413.550048828125</v>
       </c>
       <c r="C95" t="n">
-        <v>1464</v>
+        <v>1426.699951171875</v>
       </c>
       <c r="D95" t="n">
-        <v>1435</v>
+        <v>1413.050048828125</v>
       </c>
       <c r="E95" t="n">
-        <v>1439.150024414062</v>
+        <v>1420.150024414062</v>
       </c>
       <c r="F95" t="n">
-        <v>1419.762573242188</v>
+        <v>1401.0185546875</v>
       </c>
       <c r="G95" t="n">
-        <v>22946568</v>
+        <v>16043575</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45344</v>
+        <v>45350</v>
       </c>
       <c r="B96" t="n">
-        <v>1417.75</v>
+        <v>1420.150024414062</v>
       </c>
       <c r="C96" t="n">
-        <v>1428.800048828125</v>
+        <v>1424.199951171875</v>
       </c>
       <c r="D96" t="n">
-        <v>1412.199951171875</v>
+        <v>1404</v>
       </c>
       <c r="E96" t="n">
-        <v>1419.550048828125</v>
+        <v>1409.400024414062</v>
       </c>
       <c r="F96" t="n">
-        <v>1400.426635742188</v>
+        <v>1390.413330078125</v>
       </c>
       <c r="G96" t="n">
-        <v>25280441</v>
+        <v>12660993</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45345</v>
+        <v>45351</v>
       </c>
       <c r="B97" t="n">
-        <v>1422.550048828125</v>
+        <v>1402.099975585938</v>
       </c>
       <c r="C97" t="n">
-        <v>1433.900024414062</v>
+        <v>1410.400024414062</v>
       </c>
       <c r="D97" t="n">
-        <v>1418</v>
+        <v>1397.300048828125</v>
       </c>
       <c r="E97" t="n">
-        <v>1420.599975585938</v>
+        <v>1403.400024414062</v>
       </c>
       <c r="F97" t="n">
-        <v>1401.46240234375</v>
+        <v>1384.494140625</v>
       </c>
       <c r="G97" t="n">
-        <v>14916726</v>
+        <v>26647850</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B98" t="n">
-        <v>1413.550048828125</v>
+        <v>1400</v>
       </c>
       <c r="C98" t="n">
-        <v>1434.849975585938</v>
+        <v>1432.75</v>
       </c>
       <c r="D98" t="n">
-        <v>1413.550048828125</v>
+        <v>1400</v>
       </c>
       <c r="E98" t="n">
-        <v>1422.300048828125</v>
+        <v>1430.75</v>
       </c>
       <c r="F98" t="n">
-        <v>1403.139526367188</v>
+        <v>1411.475708007812</v>
       </c>
       <c r="G98" t="n">
-        <v>11753435</v>
+        <v>17369449</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="B99" t="n">
-        <v>1413.550048828125</v>
+        <v>1430.949951171875</v>
       </c>
       <c r="C99" t="n">
-        <v>1426.699951171875</v>
+        <v>1437</v>
       </c>
       <c r="D99" t="n">
-        <v>1413.050048828125</v>
+        <v>1424.300048828125</v>
       </c>
       <c r="E99" t="n">
-        <v>1420.150024414062</v>
+        <v>1432.699951171875</v>
       </c>
       <c r="F99" t="n">
-        <v>1401.0185546875</v>
+        <v>1413.3994140625</v>
       </c>
       <c r="G99" t="n">
-        <v>16043575</v>
+        <v>17808237</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45350</v>
+        <v>45356</v>
       </c>
       <c r="B100" t="n">
-        <v>1420.150024414062</v>
+        <v>1422</v>
       </c>
       <c r="C100" t="n">
-        <v>1424.199951171875</v>
+        <v>1443</v>
       </c>
       <c r="D100" t="n">
-        <v>1404</v>
+        <v>1421.650024414062</v>
       </c>
       <c r="E100" t="n">
-        <v>1409.400024414062</v>
+        <v>1440.849975585938</v>
       </c>
       <c r="F100" t="n">
-        <v>1390.413330078125</v>
+        <v>1421.439575195312</v>
       </c>
       <c r="G100" t="n">
-        <v>12660993</v>
+        <v>18995836</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="B101" t="n">
-        <v>1402.099975585938</v>
+        <v>1433.550048828125</v>
       </c>
       <c r="C101" t="n">
-        <v>1410.400024414062</v>
+        <v>1452.849975585938</v>
       </c>
       <c r="D101" t="n">
-        <v>1397.300048828125</v>
+        <v>1433.550048828125</v>
       </c>
       <c r="E101" t="n">
-        <v>1403.400024414062</v>
+        <v>1442.599975585938</v>
       </c>
       <c r="F101" t="n">
-        <v>1384.494140625</v>
+        <v>1423.166015625</v>
       </c>
       <c r="G101" t="n">
-        <v>26647850</v>
+        <v>21204765</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="B102" t="n">
-        <v>1400</v>
+        <v>1445.5</v>
       </c>
       <c r="C102" t="n">
-        <v>1432.75</v>
+        <v>1451.050048828125</v>
       </c>
       <c r="D102" t="n">
-        <v>1400</v>
+        <v>1441.400024414062</v>
       </c>
       <c r="E102" t="n">
-        <v>1430.75</v>
+        <v>1446.099975585938</v>
       </c>
       <c r="F102" t="n">
-        <v>1411.475708007812</v>
+        <v>1426.618896484375</v>
       </c>
       <c r="G102" t="n">
-        <v>17369449</v>
+        <v>24674023</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45355</v>
+        <v>45362</v>
       </c>
       <c r="B103" t="n">
-        <v>1430.949951171875</v>
+        <v>1430</v>
       </c>
       <c r="C103" t="n">
-        <v>1437</v>
+        <v>1445.949951171875</v>
       </c>
       <c r="D103" t="n">
-        <v>1424.300048828125</v>
+        <v>1423</v>
       </c>
       <c r="E103" t="n">
-        <v>1432.699951171875</v>
+        <v>1427.800048828125</v>
       </c>
       <c r="F103" t="n">
-        <v>1413.3994140625</v>
+        <v>1408.5654296875</v>
       </c>
       <c r="G103" t="n">
-        <v>17808237</v>
+        <v>25265547</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45356</v>
+        <v>45363</v>
       </c>
       <c r="B104" t="n">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="C104" t="n">
-        <v>1443</v>
+        <v>1464</v>
       </c>
       <c r="D104" t="n">
-        <v>1421.650024414062</v>
+        <v>1429.25</v>
       </c>
       <c r="E104" t="n">
-        <v>1440.849975585938</v>
+        <v>1459.550048828125</v>
       </c>
       <c r="F104" t="n">
-        <v>1421.439575195312</v>
+        <v>1439.8876953125</v>
       </c>
       <c r="G104" t="n">
-        <v>18995836</v>
+        <v>32709227</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45357</v>
+        <v>45364</v>
       </c>
       <c r="B105" t="n">
-        <v>1433.550048828125</v>
+        <v>1465.5</v>
       </c>
       <c r="C105" t="n">
-        <v>1452.849975585938</v>
+        <v>1471.599975585938</v>
       </c>
       <c r="D105" t="n">
-        <v>1433.550048828125</v>
+        <v>1450.099975585938</v>
       </c>
       <c r="E105" t="n">
-        <v>1442.599975585938</v>
+        <v>1460.400024414062</v>
       </c>
       <c r="F105" t="n">
-        <v>1423.166015625</v>
+        <v>1440.726318359375</v>
       </c>
       <c r="G105" t="n">
-        <v>21204765</v>
+        <v>31533727</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45358</v>
+        <v>45365</v>
       </c>
       <c r="B106" t="n">
-        <v>1445.5</v>
+        <v>1462.099975585938</v>
       </c>
       <c r="C106" t="n">
-        <v>1451.050048828125</v>
+        <v>1466</v>
       </c>
       <c r="D106" t="n">
-        <v>1441.400024414062</v>
+        <v>1444.300048828125</v>
       </c>
       <c r="E106" t="n">
-        <v>1446.099975585938</v>
+        <v>1455.449951171875</v>
       </c>
       <c r="F106" t="n">
-        <v>1426.618896484375</v>
+        <v>1435.842895507812</v>
       </c>
       <c r="G106" t="n">
-        <v>24674023</v>
+        <v>26216079</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B107" t="n">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="C107" t="n">
-        <v>1445.949951171875</v>
+        <v>1459.300048828125</v>
       </c>
       <c r="D107" t="n">
-        <v>1423</v>
+        <v>1442.25</v>
       </c>
       <c r="E107" t="n">
-        <v>1427.800048828125</v>
+        <v>1452.650024414062</v>
       </c>
       <c r="F107" t="n">
-        <v>1408.5654296875</v>
+        <v>1433.080688476562</v>
       </c>
       <c r="G107" t="n">
-        <v>25265547</v>
+        <v>71806902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="B108" t="n">
-        <v>1434</v>
+        <v>1447</v>
       </c>
       <c r="C108" t="n">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="D108" t="n">
-        <v>1429.25</v>
+        <v>1435.800048828125</v>
       </c>
       <c r="E108" t="n">
-        <v>1459.550048828125</v>
+        <v>1446.050048828125</v>
       </c>
       <c r="F108" t="n">
-        <v>1439.8876953125</v>
+        <v>1426.569580078125</v>
       </c>
       <c r="G108" t="n">
-        <v>32709227</v>
+        <v>10718928</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45364</v>
+        <v>45370</v>
       </c>
       <c r="B109" t="n">
-        <v>1465.5</v>
+        <v>1435.5</v>
       </c>
       <c r="C109" t="n">
-        <v>1471.599975585938</v>
+        <v>1452.400024414062</v>
       </c>
       <c r="D109" t="n">
-        <v>1450.099975585938</v>
+        <v>1435.5</v>
       </c>
       <c r="E109" t="n">
-        <v>1460.400024414062</v>
+        <v>1449.349975585938</v>
       </c>
       <c r="F109" t="n">
-        <v>1440.726318359375</v>
+        <v>1429.825073242188</v>
       </c>
       <c r="G109" t="n">
-        <v>31533727</v>
+        <v>18091797</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B110" t="n">
-        <v>1462.099975585938</v>
+        <v>1449.050048828125</v>
       </c>
       <c r="C110" t="n">
-        <v>1466</v>
+        <v>1451.650024414062</v>
       </c>
       <c r="D110" t="n">
-        <v>1444.300048828125</v>
+        <v>1424.650024414062</v>
       </c>
       <c r="E110" t="n">
-        <v>1455.449951171875</v>
+        <v>1431.050048828125</v>
       </c>
       <c r="F110" t="n">
-        <v>1435.842895507812</v>
+        <v>1411.771728515625</v>
       </c>
       <c r="G110" t="n">
-        <v>26216079</v>
+        <v>21803047</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="B111" t="n">
-        <v>1450</v>
+        <v>1442.599975585938</v>
       </c>
       <c r="C111" t="n">
-        <v>1459.300048828125</v>
+        <v>1451.25</v>
       </c>
       <c r="D111" t="n">
-        <v>1442.25</v>
+        <v>1438.300048828125</v>
       </c>
       <c r="E111" t="n">
-        <v>1452.650024414062</v>
+        <v>1445.75</v>
       </c>
       <c r="F111" t="n">
-        <v>1433.080688476562</v>
+        <v>1426.273559570312</v>
       </c>
       <c r="G111" t="n">
-        <v>71806902</v>
+        <v>14461430</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45369</v>
+        <v>45373</v>
       </c>
       <c r="B112" t="n">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="C112" t="n">
-        <v>1456</v>
+        <v>1450.75</v>
       </c>
       <c r="D112" t="n">
-        <v>1435.800048828125</v>
+        <v>1437.75</v>
       </c>
       <c r="E112" t="n">
-        <v>1446.050048828125</v>
+        <v>1442.849975585938</v>
       </c>
       <c r="F112" t="n">
-        <v>1426.569580078125</v>
+        <v>1423.41259765625</v>
       </c>
       <c r="G112" t="n">
-        <v>10718928</v>
+        <v>22990163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45370</v>
+        <v>45377</v>
       </c>
       <c r="B113" t="n">
-        <v>1435.5</v>
+        <v>1427.199951171875</v>
       </c>
       <c r="C113" t="n">
-        <v>1452.400024414062</v>
+        <v>1437.949951171875</v>
       </c>
       <c r="D113" t="n">
-        <v>1435.5</v>
+        <v>1422.150024414062</v>
       </c>
       <c r="E113" t="n">
-        <v>1449.349975585938</v>
+        <v>1425.400024414062</v>
       </c>
       <c r="F113" t="n">
-        <v>1429.825073242188</v>
+        <v>1406.19775390625</v>
       </c>
       <c r="G113" t="n">
-        <v>18091797</v>
+        <v>28422145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45371</v>
+        <v>45378</v>
       </c>
       <c r="B114" t="n">
-        <v>1449.050048828125</v>
+        <v>1423.550048828125</v>
       </c>
       <c r="C114" t="n">
-        <v>1451.650024414062</v>
+        <v>1447.949951171875</v>
       </c>
       <c r="D114" t="n">
-        <v>1424.650024414062</v>
+        <v>1421.25</v>
       </c>
       <c r="E114" t="n">
-        <v>1431.050048828125</v>
+        <v>1440.699951171875</v>
       </c>
       <c r="F114" t="n">
-        <v>1411.771728515625</v>
+        <v>1421.291625976562</v>
       </c>
       <c r="G114" t="n">
-        <v>21803047</v>
+        <v>31084334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45372</v>
+        <v>45379</v>
       </c>
       <c r="B115" t="n">
-        <v>1442.599975585938</v>
+        <v>1440.699951171875</v>
       </c>
       <c r="C115" t="n">
-        <v>1451.25</v>
+        <v>1460.5</v>
       </c>
       <c r="D115" t="n">
-        <v>1438.300048828125</v>
+        <v>1440.699951171875</v>
       </c>
       <c r="E115" t="n">
-        <v>1445.75</v>
+        <v>1447.900024414062</v>
       </c>
       <c r="F115" t="n">
-        <v>1426.273559570312</v>
+        <v>1428.394653320312</v>
       </c>
       <c r="G115" t="n">
-        <v>14461430</v>
+        <v>27796071</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45373</v>
+        <v>45383</v>
       </c>
       <c r="B116" t="n">
-        <v>1441</v>
+        <v>1458</v>
       </c>
       <c r="C116" t="n">
-        <v>1450.75</v>
+        <v>1473.800048828125</v>
       </c>
       <c r="D116" t="n">
-        <v>1437.75</v>
+        <v>1455.599975585938</v>
       </c>
       <c r="E116" t="n">
-        <v>1442.849975585938</v>
+        <v>1470.5</v>
       </c>
       <c r="F116" t="n">
-        <v>1423.41259765625</v>
+        <v>1450.690185546875</v>
       </c>
       <c r="G116" t="n">
-        <v>22990163</v>
+        <v>12599785</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45377</v>
+        <v>45384</v>
       </c>
       <c r="B117" t="n">
-        <v>1427.199951171875</v>
+        <v>1465.150024414062</v>
       </c>
       <c r="C117" t="n">
-        <v>1437.949951171875</v>
+        <v>1494.849975585938</v>
       </c>
       <c r="D117" t="n">
-        <v>1422.150024414062</v>
+        <v>1463.25</v>
       </c>
       <c r="E117" t="n">
-        <v>1425.400024414062</v>
+        <v>1480.150024414062</v>
       </c>
       <c r="F117" t="n">
-        <v>1406.19775390625</v>
+        <v>1460.210205078125</v>
       </c>
       <c r="G117" t="n">
-        <v>28422145</v>
+        <v>20612723</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="B118" t="n">
-        <v>1423.550048828125</v>
+        <v>1472.099975585938</v>
       </c>
       <c r="C118" t="n">
-        <v>1447.949951171875</v>
+        <v>1495.650024414062</v>
       </c>
       <c r="D118" t="n">
-        <v>1421.25</v>
+        <v>1471.400024414062</v>
       </c>
       <c r="E118" t="n">
-        <v>1440.699951171875</v>
+        <v>1482.300048828125</v>
       </c>
       <c r="F118" t="n">
-        <v>1421.291625976562</v>
+        <v>1462.331298828125</v>
       </c>
       <c r="G118" t="n">
-        <v>31084334</v>
+        <v>22792193</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="B119" t="n">
-        <v>1440.699951171875</v>
+        <v>1504</v>
       </c>
       <c r="C119" t="n">
-        <v>1460.5</v>
+        <v>1530</v>
       </c>
       <c r="D119" t="n">
-        <v>1440.699951171875</v>
+        <v>1504</v>
       </c>
       <c r="E119" t="n">
-        <v>1447.900024414062</v>
+        <v>1527.599975585938</v>
       </c>
       <c r="F119" t="n">
-        <v>1428.394653320312</v>
+        <v>1507.02099609375</v>
       </c>
       <c r="G119" t="n">
-        <v>27796071</v>
+        <v>44467533</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B120" t="n">
-        <v>1458</v>
+        <v>1539</v>
       </c>
       <c r="C120" t="n">
-        <v>1473.800048828125</v>
+        <v>1554.5</v>
       </c>
       <c r="D120" t="n">
-        <v>1455.599975585938</v>
+        <v>1530.150024414062</v>
       </c>
       <c r="E120" t="n">
-        <v>1470.5</v>
+        <v>1549.550048828125</v>
       </c>
       <c r="F120" t="n">
-        <v>1450.690185546875</v>
+        <v>1528.67529296875</v>
       </c>
       <c r="G120" t="n">
-        <v>12599785</v>
+        <v>29527951</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45384</v>
+        <v>45390</v>
       </c>
       <c r="B121" t="n">
-        <v>1465.150024414062</v>
+        <v>1554.949951171875</v>
       </c>
       <c r="C121" t="n">
-        <v>1494.849975585938</v>
+        <v>1557.25</v>
       </c>
       <c r="D121" t="n">
-        <v>1463.25</v>
+        <v>1541.550048828125</v>
       </c>
       <c r="E121" t="n">
-        <v>1480.150024414062</v>
+        <v>1546.599975585938</v>
       </c>
       <c r="F121" t="n">
-        <v>1460.210205078125</v>
+        <v>1525.765014648438</v>
       </c>
       <c r="G121" t="n">
-        <v>20612723</v>
+        <v>10241470</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45385</v>
+        <v>45391</v>
       </c>
       <c r="B122" t="n">
-        <v>1472.099975585938</v>
+        <v>1554.849975585938</v>
       </c>
       <c r="C122" t="n">
-        <v>1495.650024414062</v>
+        <v>1554.849975585938</v>
       </c>
       <c r="D122" t="n">
-        <v>1471.400024414062</v>
+        <v>1540.300048828125</v>
       </c>
       <c r="E122" t="n">
-        <v>1482.300048828125</v>
+        <v>1548.550048828125</v>
       </c>
       <c r="F122" t="n">
-        <v>1462.331298828125</v>
+        <v>1527.688720703125</v>
       </c>
       <c r="G122" t="n">
-        <v>22792193</v>
+        <v>10942247</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45386</v>
+        <v>45392</v>
       </c>
       <c r="B123" t="n">
-        <v>1504</v>
+        <v>1549.900024414062</v>
       </c>
       <c r="C123" t="n">
-        <v>1530</v>
+        <v>1549.900024414062</v>
       </c>
       <c r="D123" t="n">
-        <v>1504</v>
+        <v>1532.949951171875</v>
       </c>
       <c r="E123" t="n">
-        <v>1527.599975585938</v>
+        <v>1536.349975585938</v>
       </c>
       <c r="F123" t="n">
-        <v>1507.02099609375</v>
+        <v>1515.653076171875</v>
       </c>
       <c r="G123" t="n">
-        <v>44467533</v>
+        <v>13903700</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45387</v>
+        <v>45394</v>
       </c>
       <c r="B124" t="n">
-        <v>1539</v>
+        <v>1521</v>
       </c>
       <c r="C124" t="n">
-        <v>1554.5</v>
+        <v>1529.849975585938</v>
       </c>
       <c r="D124" t="n">
-        <v>1530.150024414062</v>
+        <v>1513.449951171875</v>
       </c>
       <c r="E124" t="n">
-        <v>1549.550048828125</v>
+        <v>1518.949951171875</v>
       </c>
       <c r="F124" t="n">
-        <v>1528.67529296875</v>
+        <v>1498.487426757812</v>
       </c>
       <c r="G124" t="n">
-        <v>29527951</v>
+        <v>20542104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B125" t="n">
-        <v>1554.949951171875</v>
+        <v>1497.550048828125</v>
       </c>
       <c r="C125" t="n">
-        <v>1557.25</v>
+        <v>1510</v>
       </c>
       <c r="D125" t="n">
-        <v>1541.550048828125</v>
+        <v>1492.050048828125</v>
       </c>
       <c r="E125" t="n">
-        <v>1546.599975585938</v>
+        <v>1494.699951171875</v>
       </c>
       <c r="F125" t="n">
-        <v>1525.765014648438</v>
+        <v>1474.564086914062</v>
       </c>
       <c r="G125" t="n">
-        <v>10241470</v>
+        <v>11707624</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45391</v>
+        <v>45398</v>
       </c>
       <c r="B126" t="n">
-        <v>1554.849975585938</v>
+        <v>1487</v>
       </c>
       <c r="C126" t="n">
-        <v>1554.849975585938</v>
+        <v>1512.900024414062</v>
       </c>
       <c r="D126" t="n">
-        <v>1540.300048828125</v>
+        <v>1482.25</v>
       </c>
       <c r="E126" t="n">
-        <v>1548.550048828125</v>
+        <v>1509.25</v>
       </c>
       <c r="F126" t="n">
-        <v>1527.688720703125</v>
+        <v>1488.918212890625</v>
       </c>
       <c r="G126" t="n">
-        <v>10942247</v>
+        <v>10372443</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45392</v>
+        <v>45400</v>
       </c>
       <c r="B127" t="n">
-        <v>1549.900024414062</v>
+        <v>1509.800048828125</v>
       </c>
       <c r="C127" t="n">
-        <v>1549.900024414062</v>
+        <v>1518.849975585938</v>
       </c>
       <c r="D127" t="n">
-        <v>1532.949951171875</v>
+        <v>1491.050048828125</v>
       </c>
       <c r="E127" t="n">
-        <v>1536.349975585938</v>
+        <v>1494.699951171875</v>
       </c>
       <c r="F127" t="n">
-        <v>1515.653076171875</v>
+        <v>1474.564086914062</v>
       </c>
       <c r="G127" t="n">
-        <v>13903700</v>
+        <v>17117442</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="B128" t="n">
-        <v>1521</v>
+        <v>1486.550048828125</v>
       </c>
       <c r="C128" t="n">
-        <v>1529.849975585938</v>
+        <v>1534.949951171875</v>
       </c>
       <c r="D128" t="n">
-        <v>1513.449951171875</v>
+        <v>1480.25</v>
       </c>
       <c r="E128" t="n">
-        <v>1518.949951171875</v>
+        <v>1531.300048828125</v>
       </c>
       <c r="F128" t="n">
-        <v>1498.487426757812</v>
+        <v>1510.671142578125</v>
       </c>
       <c r="G128" t="n">
-        <v>20542104</v>
+        <v>17288217</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B129" t="n">
-        <v>1497.550048828125</v>
+        <v>1557.400024414062</v>
       </c>
       <c r="C129" t="n">
-        <v>1510</v>
+        <v>1557.400024414062</v>
       </c>
       <c r="D129" t="n">
-        <v>1492.050048828125</v>
+        <v>1508.300048828125</v>
       </c>
       <c r="E129" t="n">
-        <v>1494.699951171875</v>
+        <v>1512.199951171875</v>
       </c>
       <c r="F129" t="n">
-        <v>1474.564086914062</v>
+        <v>1491.828369140625</v>
       </c>
       <c r="G129" t="n">
-        <v>11707624</v>
+        <v>21149219</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45398</v>
+        <v>45405</v>
       </c>
       <c r="B130" t="n">
-        <v>1487</v>
+        <v>1526.300048828125</v>
       </c>
       <c r="C130" t="n">
-        <v>1512.900024414062</v>
+        <v>1526.5</v>
       </c>
       <c r="D130" t="n">
-        <v>1482.25</v>
+        <v>1503.25</v>
       </c>
       <c r="E130" t="n">
-        <v>1509.25</v>
+        <v>1507.599975585938</v>
       </c>
       <c r="F130" t="n">
-        <v>1488.918212890625</v>
+        <v>1487.290405273438</v>
       </c>
       <c r="G130" t="n">
-        <v>10372443</v>
+        <v>13413530</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="B131" t="n">
-        <v>1509.800048828125</v>
+        <v>1515</v>
       </c>
       <c r="C131" t="n">
-        <v>1518.849975585938</v>
+        <v>1521.75</v>
       </c>
       <c r="D131" t="n">
-        <v>1491.050048828125</v>
+        <v>1509.050048828125</v>
       </c>
       <c r="E131" t="n">
-        <v>1494.699951171875</v>
+        <v>1511.699951171875</v>
       </c>
       <c r="F131" t="n">
-        <v>1474.564086914062</v>
+        <v>1491.335083007812</v>
       </c>
       <c r="G131" t="n">
-        <v>17117442</v>
+        <v>11220790</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45401</v>
+        <v>45407</v>
       </c>
       <c r="B132" t="n">
-        <v>1486.550048828125</v>
+        <v>1506.25</v>
       </c>
       <c r="C132" t="n">
-        <v>1534.949951171875</v>
+        <v>1519.699951171875</v>
       </c>
       <c r="D132" t="n">
-        <v>1480.25</v>
+        <v>1506.25</v>
       </c>
       <c r="E132" t="n">
-        <v>1531.300048828125</v>
+        <v>1510.75</v>
       </c>
       <c r="F132" t="n">
-        <v>1510.671142578125</v>
+        <v>1490.39794921875</v>
       </c>
       <c r="G132" t="n">
-        <v>17288217</v>
+        <v>17722602</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45404</v>
+        <v>45408</v>
       </c>
       <c r="B133" t="n">
-        <v>1557.400024414062</v>
+        <v>1519.800048828125</v>
       </c>
       <c r="C133" t="n">
-        <v>1557.400024414062</v>
+        <v>1528</v>
       </c>
       <c r="D133" t="n">
-        <v>1508.300048828125</v>
+        <v>1505.550048828125</v>
       </c>
       <c r="E133" t="n">
-        <v>1512.199951171875</v>
+        <v>1509.800048828125</v>
       </c>
       <c r="F133" t="n">
-        <v>1491.828369140625</v>
+        <v>1489.460815429688</v>
       </c>
       <c r="G133" t="n">
-        <v>21149219</v>
+        <v>12427347</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45405</v>
+        <v>45411</v>
       </c>
       <c r="B134" t="n">
-        <v>1526.300048828125</v>
+        <v>1515</v>
       </c>
       <c r="C134" t="n">
-        <v>1526.5</v>
+        <v>1534.449951171875</v>
       </c>
       <c r="D134" t="n">
-        <v>1503.25</v>
+        <v>1506.550048828125</v>
       </c>
       <c r="E134" t="n">
-        <v>1507.599975585938</v>
+        <v>1529.5</v>
       </c>
       <c r="F134" t="n">
-        <v>1487.290405273438</v>
+        <v>1508.895385742188</v>
       </c>
       <c r="G134" t="n">
-        <v>13413530</v>
+        <v>18046675</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45406</v>
+        <v>45412</v>
       </c>
       <c r="B135" t="n">
-        <v>1515</v>
+        <v>1529.199951171875</v>
       </c>
       <c r="C135" t="n">
-        <v>1521.75</v>
+        <v>1539.5</v>
       </c>
       <c r="D135" t="n">
-        <v>1509.050048828125</v>
+        <v>1514.900024414062</v>
       </c>
       <c r="E135" t="n">
-        <v>1511.699951171875</v>
+        <v>1520.099975585938</v>
       </c>
       <c r="F135" t="n">
-        <v>1491.335083007812</v>
+        <v>1499.621948242188</v>
       </c>
       <c r="G135" t="n">
-        <v>11220790</v>
+        <v>26153691</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="B136" t="n">
-        <v>1506.25</v>
+        <v>1522</v>
       </c>
       <c r="C136" t="n">
-        <v>1519.699951171875</v>
+        <v>1537</v>
       </c>
       <c r="D136" t="n">
-        <v>1506.25</v>
+        <v>1520.349975585938</v>
       </c>
       <c r="E136" t="n">
-        <v>1510.75</v>
+        <v>1532.25</v>
       </c>
       <c r="F136" t="n">
-        <v>1490.39794921875</v>
+        <v>1511.608276367188</v>
       </c>
       <c r="G136" t="n">
-        <v>17722602</v>
+        <v>16737503</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45408</v>
+        <v>45415</v>
       </c>
       <c r="B137" t="n">
-        <v>1519.800048828125</v>
+        <v>1533.25</v>
       </c>
       <c r="C137" t="n">
-        <v>1528</v>
+        <v>1540.599975585938</v>
       </c>
       <c r="D137" t="n">
-        <v>1505.550048828125</v>
+        <v>1507.199951171875</v>
       </c>
       <c r="E137" t="n">
-        <v>1509.800048828125</v>
+        <v>1519.599975585938</v>
       </c>
       <c r="F137" t="n">
-        <v>1489.460815429688</v>
+        <v>1499.128662109375</v>
       </c>
       <c r="G137" t="n">
-        <v>12427347</v>
+        <v>15932621</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="B138" t="n">
-        <v>1515</v>
+        <v>1522</v>
       </c>
       <c r="C138" t="n">
-        <v>1534.449951171875</v>
+        <v>1534.5</v>
       </c>
       <c r="D138" t="n">
-        <v>1506.550048828125</v>
+        <v>1517.150024414062</v>
       </c>
       <c r="E138" t="n">
-        <v>1529.5</v>
+        <v>1522.650024414062</v>
       </c>
       <c r="F138" t="n">
-        <v>1508.895385742188</v>
+        <v>1502.1376953125</v>
       </c>
       <c r="G138" t="n">
-        <v>18046675</v>
+        <v>14396698</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="B139" t="n">
-        <v>1529.199951171875</v>
+        <v>1521.949951171875</v>
       </c>
       <c r="C139" t="n">
-        <v>1539.5</v>
+        <v>1524.050048828125</v>
       </c>
       <c r="D139" t="n">
-        <v>1514.900024414062</v>
+        <v>1504.150024414062</v>
       </c>
       <c r="E139" t="n">
-        <v>1520.099975585938</v>
+        <v>1506.150024414062</v>
       </c>
       <c r="F139" t="n">
-        <v>1499.621948242188</v>
+        <v>1485.859985351562</v>
       </c>
       <c r="G139" t="n">
-        <v>26153691</v>
+        <v>14240301</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45414</v>
+        <v>45420</v>
       </c>
       <c r="B140" t="n">
-        <v>1522</v>
+        <v>1495.949951171875</v>
       </c>
       <c r="C140" t="n">
-        <v>1537</v>
+        <v>1496.949951171875</v>
       </c>
       <c r="D140" t="n">
-        <v>1520.349975585938</v>
+        <v>1480.349975585938</v>
       </c>
       <c r="E140" t="n">
-        <v>1532.25</v>
+        <v>1482.650024414062</v>
       </c>
       <c r="F140" t="n">
-        <v>1511.608276367188</v>
+        <v>1462.676513671875</v>
       </c>
       <c r="G140" t="n">
-        <v>16737503</v>
+        <v>20843931</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="B141" t="n">
-        <v>1533.25</v>
+        <v>1474.949951171875</v>
       </c>
       <c r="C141" t="n">
-        <v>1540.599975585938</v>
+        <v>1486.75</v>
       </c>
       <c r="D141" t="n">
-        <v>1507.199951171875</v>
+        <v>1445.300048828125</v>
       </c>
       <c r="E141" t="n">
-        <v>1519.599975585938</v>
+        <v>1447.5</v>
       </c>
       <c r="F141" t="n">
-        <v>1499.128662109375</v>
+        <v>1428</v>
       </c>
       <c r="G141" t="n">
-        <v>15932621</v>
+        <v>23140639</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45418</v>
+        <v>45422</v>
       </c>
       <c r="B142" t="n">
-        <v>1522</v>
+        <v>1439</v>
       </c>
       <c r="C142" t="n">
-        <v>1534.5</v>
+        <v>1451.949951171875</v>
       </c>
       <c r="D142" t="n">
-        <v>1517.150024414062</v>
+        <v>1426.800048828125</v>
       </c>
       <c r="E142" t="n">
-        <v>1522.650024414062</v>
+        <v>1437.900024414062</v>
       </c>
       <c r="F142" t="n">
-        <v>1502.1376953125</v>
+        <v>1437.900024414062</v>
       </c>
       <c r="G142" t="n">
-        <v>14396698</v>
+        <v>13638304</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45419</v>
+        <v>45425</v>
       </c>
       <c r="B143" t="n">
-        <v>1521.949951171875</v>
+        <v>1432</v>
       </c>
       <c r="C143" t="n">
-        <v>1524.050048828125</v>
+        <v>1459.800048828125</v>
       </c>
       <c r="D143" t="n">
-        <v>1504.150024414062</v>
+        <v>1430.300048828125</v>
       </c>
       <c r="E143" t="n">
-        <v>1506.150024414062</v>
+        <v>1455.25</v>
       </c>
       <c r="F143" t="n">
-        <v>1485.859985351562</v>
+        <v>1455.25</v>
       </c>
       <c r="G143" t="n">
-        <v>14240301</v>
+        <v>13523601</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45420</v>
+        <v>45426</v>
       </c>
       <c r="B144" t="n">
-        <v>1495.949951171875</v>
+        <v>1452.25</v>
       </c>
       <c r="C144" t="n">
-        <v>1496.949951171875</v>
+        <v>1465.5</v>
       </c>
       <c r="D144" t="n">
-        <v>1480.349975585938</v>
+        <v>1450.300048828125</v>
       </c>
       <c r="E144" t="n">
-        <v>1482.650024414062</v>
+        <v>1460.949951171875</v>
       </c>
       <c r="F144" t="n">
-        <v>1462.676513671875</v>
+        <v>1460.949951171875</v>
       </c>
       <c r="G144" t="n">
-        <v>20843931</v>
+        <v>12832571</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45421</v>
+        <v>45427</v>
       </c>
       <c r="B145" t="n">
-        <v>1474.949951171875</v>
+        <v>1459.699951171875</v>
       </c>
       <c r="C145" t="n">
-        <v>1486.75</v>
+        <v>1459.699951171875</v>
       </c>
       <c r="D145" t="n">
-        <v>1445.300048828125</v>
+        <v>1435.800048828125</v>
       </c>
       <c r="E145" t="n">
-        <v>1447.5</v>
+        <v>1438.5</v>
       </c>
       <c r="F145" t="n">
-        <v>1428</v>
+        <v>1438.5</v>
       </c>
       <c r="G145" t="n">
-        <v>23140639</v>
+        <v>19465998</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="B146" t="n">
-        <v>1439</v>
+        <v>1446.050048828125</v>
       </c>
       <c r="C146" t="n">
-        <v>1451.949951171875</v>
+        <v>1462.550048828125</v>
       </c>
       <c r="D146" t="n">
-        <v>1426.800048828125</v>
+        <v>1435.5</v>
       </c>
       <c r="E146" t="n">
-        <v>1437.900024414062</v>
+        <v>1460.25</v>
       </c>
       <c r="F146" t="n">
-        <v>1437.900024414062</v>
+        <v>1460.25</v>
       </c>
       <c r="G146" t="n">
-        <v>13638304</v>
+        <v>17472618</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="B147" t="n">
-        <v>1432</v>
+        <v>1446.199951171875</v>
       </c>
       <c r="C147" t="n">
-        <v>1459.800048828125</v>
+        <v>1468</v>
       </c>
       <c r="D147" t="n">
-        <v>1430.300048828125</v>
+        <v>1446.199951171875</v>
       </c>
       <c r="E147" t="n">
-        <v>1455.25</v>
+        <v>1464.099975585938</v>
       </c>
       <c r="F147" t="n">
-        <v>1455.25</v>
+        <v>1464.099975585938</v>
       </c>
       <c r="G147" t="n">
-        <v>13523601</v>
+        <v>10460095</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B148" t="n">
-        <v>1452.25</v>
+        <v>1450.099975585938</v>
       </c>
       <c r="C148" t="n">
-        <v>1465.5</v>
+        <v>1469.699951171875</v>
       </c>
       <c r="D148" t="n">
-        <v>1450.300048828125</v>
+        <v>1450.099975585938</v>
       </c>
       <c r="E148" t="n">
-        <v>1460.949951171875</v>
+        <v>1458.800048828125</v>
       </c>
       <c r="F148" t="n">
-        <v>1460.949951171875</v>
+        <v>1458.800048828125</v>
       </c>
       <c r="G148" t="n">
-        <v>12832571</v>
+        <v>21884989</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45427</v>
+        <v>45434</v>
       </c>
       <c r="B149" t="n">
-        <v>1459.699951171875</v>
+        <v>1457.849975585938</v>
       </c>
       <c r="C149" t="n">
-        <v>1459.699951171875</v>
+        <v>1465.599975585938</v>
       </c>
       <c r="D149" t="n">
-        <v>1435.800048828125</v>
+        <v>1448.150024414062</v>
       </c>
       <c r="E149" t="n">
-        <v>1438.5</v>
+        <v>1459.199951171875</v>
       </c>
       <c r="F149" t="n">
-        <v>1438.5</v>
+        <v>1459.199951171875</v>
       </c>
       <c r="G149" t="n">
-        <v>19465998</v>
+        <v>19998139</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45428</v>
+        <v>45435</v>
       </c>
       <c r="B150" t="n">
-        <v>1446.050048828125</v>
+        <v>1458.650024414062</v>
       </c>
       <c r="C150" t="n">
-        <v>1462.550048828125</v>
+        <v>1495.650024414062</v>
       </c>
       <c r="D150" t="n">
-        <v>1435.5</v>
+        <v>1457.050048828125</v>
       </c>
       <c r="E150" t="n">
-        <v>1460.25</v>
+        <v>1492.599975585938</v>
       </c>
       <c r="F150" t="n">
-        <v>1460.25</v>
+        <v>1492.599975585938</v>
       </c>
       <c r="G150" t="n">
-        <v>17472618</v>
+        <v>20430960</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45429</v>
+        <v>45436</v>
       </c>
       <c r="B151" t="n">
-        <v>1446.199951171875</v>
+        <v>1487.5</v>
       </c>
       <c r="C151" t="n">
-        <v>1468</v>
+        <v>1519.900024414062</v>
       </c>
       <c r="D151" t="n">
-        <v>1446.199951171875</v>
+        <v>1486</v>
       </c>
       <c r="E151" t="n">
-        <v>1464.099975585938</v>
+        <v>1517.199951171875</v>
       </c>
       <c r="F151" t="n">
-        <v>1464.099975585938</v>
+        <v>1517.199951171875</v>
       </c>
       <c r="G151" t="n">
-        <v>10460095</v>
+        <v>15530103</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B152" t="n">
-        <v>1450.099975585938</v>
+        <v>1523.349975585938</v>
       </c>
       <c r="C152" t="n">
-        <v>1469.699951171875</v>
+        <v>1545</v>
       </c>
       <c r="D152" t="n">
-        <v>1450.099975585938</v>
+        <v>1519.050048828125</v>
       </c>
       <c r="E152" t="n">
-        <v>1458.800048828125</v>
+        <v>1527.699951171875</v>
       </c>
       <c r="F152" t="n">
-        <v>1458.800048828125</v>
+        <v>1527.699951171875</v>
       </c>
       <c r="G152" t="n">
-        <v>21884989</v>
+        <v>14692720</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B153" t="n">
-        <v>1457.849975585938</v>
+        <v>1530.099975585938</v>
       </c>
       <c r="C153" t="n">
-        <v>1465.599975585938</v>
+        <v>1536.050048828125</v>
       </c>
       <c r="D153" t="n">
-        <v>1448.150024414062</v>
+        <v>1524.800048828125</v>
       </c>
       <c r="E153" t="n">
-        <v>1459.199951171875</v>
+        <v>1530.5</v>
       </c>
       <c r="F153" t="n">
-        <v>1459.199951171875</v>
+        <v>1530.5</v>
       </c>
       <c r="G153" t="n">
-        <v>19998139</v>
+        <v>13954452</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B154" t="n">
-        <v>1458.650024414062</v>
+        <v>1518</v>
       </c>
       <c r="C154" t="n">
-        <v>1495.650024414062</v>
+        <v>1523.849975585938</v>
       </c>
       <c r="D154" t="n">
-        <v>1457.050048828125</v>
+        <v>1501.25</v>
       </c>
       <c r="E154" t="n">
-        <v>1492.599975585938</v>
+        <v>1508.300048828125</v>
       </c>
       <c r="F154" t="n">
-        <v>1492.599975585938</v>
+        <v>1508.300048828125</v>
       </c>
       <c r="G154" t="n">
-        <v>20430960</v>
+        <v>17573853</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B155" t="n">
-        <v>1487.5</v>
+        <v>1499.199951171875</v>
       </c>
       <c r="C155" t="n">
-        <v>1519.900024414062</v>
+        <v>1523.599975585938</v>
       </c>
       <c r="D155" t="n">
-        <v>1486</v>
+        <v>1497.650024414062</v>
       </c>
       <c r="E155" t="n">
-        <v>1517.199951171875</v>
+        <v>1514.849975585938</v>
       </c>
       <c r="F155" t="n">
-        <v>1517.199951171875</v>
+        <v>1514.849975585938</v>
       </c>
       <c r="G155" t="n">
-        <v>15530103</v>
+        <v>16877675</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45439</v>
+        <v>45443</v>
       </c>
       <c r="B156" t="n">
-        <v>1523.349975585938</v>
+        <v>1519</v>
       </c>
       <c r="C156" t="n">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="D156" t="n">
-        <v>1519.050048828125</v>
+        <v>1514</v>
       </c>
       <c r="E156" t="n">
-        <v>1527.699951171875</v>
+        <v>1531.550048828125</v>
       </c>
       <c r="F156" t="n">
-        <v>1527.699951171875</v>
+        <v>1531.550048828125</v>
       </c>
       <c r="G156" t="n">
-        <v>14692720</v>
+        <v>37039794</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45440</v>
+        <v>45446</v>
       </c>
       <c r="B157" t="n">
-        <v>1530.099975585938</v>
+        <v>1599</v>
       </c>
       <c r="C157" t="n">
-        <v>1536.050048828125</v>
+        <v>1599</v>
       </c>
       <c r="D157" t="n">
-        <v>1524.800048828125</v>
+        <v>1550</v>
       </c>
       <c r="E157" t="n">
-        <v>1530.5</v>
+        <v>1572.199951171875</v>
       </c>
       <c r="F157" t="n">
-        <v>1530.5</v>
+        <v>1572.199951171875</v>
       </c>
       <c r="G157" t="n">
-        <v>13954452</v>
+        <v>36318628</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45441</v>
+        <v>45447</v>
       </c>
       <c r="B158" t="n">
-        <v>1518</v>
+        <v>1557</v>
       </c>
       <c r="C158" t="n">
-        <v>1523.849975585938</v>
+        <v>1559</v>
       </c>
       <c r="D158" t="n">
-        <v>1501.25</v>
+        <v>1454</v>
       </c>
       <c r="E158" t="n">
-        <v>1508.300048828125</v>
+        <v>1483.150024414062</v>
       </c>
       <c r="F158" t="n">
-        <v>1508.300048828125</v>
+        <v>1483.150024414062</v>
       </c>
       <c r="G158" t="n">
-        <v>17573853</v>
+        <v>44765620</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B159" t="n">
-        <v>1499.199951171875</v>
+        <v>1494.050048828125</v>
       </c>
       <c r="C159" t="n">
-        <v>1523.599975585938</v>
+        <v>1559.599975585938</v>
       </c>
       <c r="D159" t="n">
-        <v>1497.650024414062</v>
+        <v>1482.349975585938</v>
       </c>
       <c r="E159" t="n">
-        <v>1514.849975585938</v>
+        <v>1551.800048828125</v>
       </c>
       <c r="F159" t="n">
-        <v>1514.849975585938</v>
+        <v>1551.800048828125</v>
       </c>
       <c r="G159" t="n">
-        <v>16877675</v>
+        <v>40815825</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45443</v>
+        <v>45449</v>
       </c>
       <c r="B160" t="n">
-        <v>1519</v>
+        <v>1564.900024414062</v>
       </c>
       <c r="C160" t="n">
-        <v>1536</v>
+        <v>1565.449951171875</v>
       </c>
       <c r="D160" t="n">
-        <v>1514</v>
+        <v>1546.599975585938</v>
       </c>
       <c r="E160" t="n">
-        <v>1531.550048828125</v>
+        <v>1559.699951171875</v>
       </c>
       <c r="F160" t="n">
-        <v>1531.550048828125</v>
+        <v>1559.699951171875</v>
       </c>
       <c r="G160" t="n">
-        <v>37039794</v>
+        <v>23211435</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45446</v>
+        <v>45450</v>
       </c>
       <c r="B161" t="n">
-        <v>1599</v>
+        <v>1561.050048828125</v>
       </c>
       <c r="C161" t="n">
-        <v>1599</v>
+        <v>1584.349975585938</v>
       </c>
       <c r="D161" t="n">
-        <v>1550</v>
+        <v>1552.050048828125</v>
       </c>
       <c r="E161" t="n">
-        <v>1572.199951171875</v>
+        <v>1573.349975585938</v>
       </c>
       <c r="F161" t="n">
-        <v>1572.199951171875</v>
+        <v>1573.349975585938</v>
       </c>
       <c r="G161" t="n">
-        <v>36318628</v>
+        <v>18356108</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45447</v>
+        <v>45453</v>
       </c>
       <c r="B162" t="n">
-        <v>1557</v>
+        <v>1574</v>
       </c>
       <c r="C162" t="n">
-        <v>1559</v>
+        <v>1580.650024414062</v>
       </c>
       <c r="D162" t="n">
-        <v>1454</v>
+        <v>1557.599975585938</v>
       </c>
       <c r="E162" t="n">
-        <v>1483.150024414062</v>
+        <v>1561.300048828125</v>
       </c>
       <c r="F162" t="n">
-        <v>1483.150024414062</v>
+        <v>1561.300048828125</v>
       </c>
       <c r="G162" t="n">
-        <v>44765620</v>
+        <v>11227029</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45448</v>
+        <v>45454</v>
       </c>
       <c r="B163" t="n">
-        <v>1494.050048828125</v>
+        <v>1556</v>
       </c>
       <c r="C163" t="n">
-        <v>1559.599975585938</v>
+        <v>1571</v>
       </c>
       <c r="D163" t="n">
-        <v>1482.349975585938</v>
+        <v>1552.199951171875</v>
       </c>
       <c r="E163" t="n">
-        <v>1551.800048828125</v>
+        <v>1564.800048828125</v>
       </c>
       <c r="F163" t="n">
-        <v>1551.800048828125</v>
+        <v>1564.800048828125</v>
       </c>
       <c r="G163" t="n">
-        <v>40815825</v>
+        <v>14772663</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45449</v>
+        <v>45455</v>
       </c>
       <c r="B164" t="n">
-        <v>1564.900024414062</v>
+        <v>1575</v>
       </c>
       <c r="C164" t="n">
-        <v>1565.449951171875</v>
+        <v>1588.300048828125</v>
       </c>
       <c r="D164" t="n">
-        <v>1546.599975585938</v>
+        <v>1566.400024414062</v>
       </c>
       <c r="E164" t="n">
-        <v>1559.699951171875</v>
+        <v>1574.150024414062</v>
       </c>
       <c r="F164" t="n">
-        <v>1559.699951171875</v>
+        <v>1574.150024414062</v>
       </c>
       <c r="G164" t="n">
-        <v>23211435</v>
+        <v>19640218</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45450</v>
+        <v>45456</v>
       </c>
       <c r="B165" t="n">
-        <v>1561.050048828125</v>
+        <v>1581.75</v>
       </c>
       <c r="C165" t="n">
-        <v>1584.349975585938</v>
+        <v>1585.699951171875</v>
       </c>
       <c r="D165" t="n">
-        <v>1552.050048828125</v>
+        <v>1574</v>
       </c>
       <c r="E165" t="n">
-        <v>1573.349975585938</v>
+        <v>1580.75</v>
       </c>
       <c r="F165" t="n">
-        <v>1573.349975585938</v>
+        <v>1580.75</v>
       </c>
       <c r="G165" t="n">
-        <v>18356108</v>
+        <v>12060096</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45453</v>
+        <v>45457</v>
       </c>
       <c r="B166" t="n">
-        <v>1574</v>
+        <v>1584</v>
       </c>
       <c r="C166" t="n">
-        <v>1580.650024414062</v>
+        <v>1599</v>
       </c>
       <c r="D166" t="n">
-        <v>1557.599975585938</v>
+        <v>1577.699951171875</v>
       </c>
       <c r="E166" t="n">
-        <v>1561.300048828125</v>
+        <v>1596.900024414062</v>
       </c>
       <c r="F166" t="n">
-        <v>1561.300048828125</v>
+        <v>1596.900024414062</v>
       </c>
       <c r="G166" t="n">
-        <v>11227029</v>
+        <v>12770277</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45454</v>
+        <v>45461</v>
       </c>
       <c r="B167" t="n">
-        <v>1556</v>
+        <v>1596.900024414062</v>
       </c>
       <c r="C167" t="n">
-        <v>1571</v>
+        <v>1610.5</v>
       </c>
       <c r="D167" t="n">
-        <v>1552.199951171875</v>
+        <v>1589.449951171875</v>
       </c>
       <c r="E167" t="n">
-        <v>1564.800048828125</v>
+        <v>1607.800048828125</v>
       </c>
       <c r="F167" t="n">
-        <v>1564.800048828125</v>
+        <v>1607.800048828125</v>
       </c>
       <c r="G167" t="n">
-        <v>14772663</v>
+        <v>16207857</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B168" t="n">
-        <v>1575</v>
+        <v>1613.400024414062</v>
       </c>
       <c r="C168" t="n">
-        <v>1588.300048828125</v>
+        <v>1669.900024414062</v>
       </c>
       <c r="D168" t="n">
-        <v>1566.400024414062</v>
+        <v>1604</v>
       </c>
       <c r="E168" t="n">
-        <v>1574.150024414062</v>
+        <v>1657.849975585938</v>
       </c>
       <c r="F168" t="n">
-        <v>1574.150024414062</v>
+        <v>1657.849975585938</v>
       </c>
       <c r="G168" t="n">
-        <v>19640218</v>
+        <v>45065598</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B169" t="n">
-        <v>1581.75</v>
+        <v>1669.800048828125</v>
       </c>
       <c r="C169" t="n">
-        <v>1585.699951171875</v>
+        <v>1681.449951171875</v>
       </c>
       <c r="D169" t="n">
-        <v>1574</v>
+        <v>1652</v>
       </c>
       <c r="E169" t="n">
-        <v>1580.75</v>
+        <v>1669.349975585938</v>
       </c>
       <c r="F169" t="n">
-        <v>1580.75</v>
+        <v>1669.349975585938</v>
       </c>
       <c r="G169" t="n">
-        <v>12060096</v>
+        <v>20704371</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B170" t="n">
-        <v>1584</v>
+        <v>1672.849975585938</v>
       </c>
       <c r="C170" t="n">
-        <v>1599</v>
+        <v>1672.849975585938</v>
       </c>
       <c r="D170" t="n">
-        <v>1577.699951171875</v>
+        <v>1643.150024414062</v>
       </c>
       <c r="E170" t="n">
-        <v>1596.900024414062</v>
+        <v>1665.75</v>
       </c>
       <c r="F170" t="n">
-        <v>1596.900024414062</v>
+        <v>1665.75</v>
       </c>
       <c r="G170" t="n">
-        <v>12770277</v>
+        <v>25815388</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B171" t="n">
-        <v>1596.900024414062</v>
+        <v>1647</v>
       </c>
       <c r="C171" t="n">
-        <v>1610.5</v>
+        <v>1675.099975585938</v>
       </c>
       <c r="D171" t="n">
-        <v>1589.449951171875</v>
+        <v>1645.75</v>
       </c>
       <c r="E171" t="n">
-        <v>1607.800048828125</v>
+        <v>1672.400024414062</v>
       </c>
       <c r="F171" t="n">
-        <v>1607.800048828125</v>
+        <v>1672.400024414062</v>
       </c>
       <c r="G171" t="n">
-        <v>16207857</v>
+        <v>14272497</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45462</v>
+        <v>45468</v>
       </c>
       <c r="B172" t="n">
-        <v>1613.400024414062</v>
+        <v>1671.099975585938</v>
       </c>
       <c r="C172" t="n">
-        <v>1669.900024414062</v>
+        <v>1716.949951171875</v>
       </c>
       <c r="D172" t="n">
-        <v>1604</v>
+        <v>1671.099975585938</v>
       </c>
       <c r="E172" t="n">
-        <v>1657.849975585938</v>
+        <v>1711.349975585938</v>
       </c>
       <c r="F172" t="n">
-        <v>1657.849975585938</v>
+        <v>1711.349975585938</v>
       </c>
       <c r="G172" t="n">
-        <v>45065598</v>
+        <v>37260774</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45463</v>
+        <v>45469</v>
       </c>
       <c r="B173" t="n">
-        <v>1669.800048828125</v>
+        <v>1707.949951171875</v>
       </c>
       <c r="C173" t="n">
-        <v>1681.449951171875</v>
+        <v>1710.900024414062</v>
       </c>
       <c r="D173" t="n">
-        <v>1652</v>
+        <v>1691.099975585938</v>
       </c>
       <c r="E173" t="n">
-        <v>1669.349975585938</v>
+        <v>1701.5</v>
       </c>
       <c r="F173" t="n">
-        <v>1669.349975585938</v>
+        <v>1701.5</v>
       </c>
       <c r="G173" t="n">
-        <v>20704371</v>
+        <v>23798333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45464</v>
+        <v>45470</v>
       </c>
       <c r="B174" t="n">
-        <v>1672.849975585938</v>
+        <v>1696.099975585938</v>
       </c>
       <c r="C174" t="n">
-        <v>1672.849975585938</v>
+        <v>1713</v>
       </c>
       <c r="D174" t="n">
-        <v>1643.150024414062</v>
+        <v>1686.599975585938</v>
       </c>
       <c r="E174" t="n">
-        <v>1665.75</v>
+        <v>1696.150024414062</v>
       </c>
       <c r="F174" t="n">
-        <v>1665.75</v>
+        <v>1696.150024414062</v>
       </c>
       <c r="G174" t="n">
-        <v>25815388</v>
+        <v>27537325</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45467</v>
+        <v>45471</v>
       </c>
       <c r="B175" t="n">
-        <v>1647</v>
+        <v>1697.599975585938</v>
       </c>
       <c r="C175" t="n">
-        <v>1675.099975585938</v>
+        <v>1706.599975585938</v>
       </c>
       <c r="D175" t="n">
-        <v>1645.75</v>
+        <v>1679</v>
       </c>
       <c r="E175" t="n">
-        <v>1672.400024414062</v>
+        <v>1683.800048828125</v>
       </c>
       <c r="F175" t="n">
-        <v>1672.400024414062</v>
+        <v>1683.800048828125</v>
       </c>
       <c r="G175" t="n">
-        <v>14272497</v>
+        <v>13238023</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45468</v>
+        <v>45474</v>
       </c>
       <c r="B176" t="n">
-        <v>1671.099975585938</v>
+        <v>1680</v>
       </c>
       <c r="C176" t="n">
-        <v>1716.949951171875</v>
+        <v>1707.300048828125</v>
       </c>
       <c r="D176" t="n">
-        <v>1671.099975585938</v>
+        <v>1680</v>
       </c>
       <c r="E176" t="n">
-        <v>1711.349975585938</v>
+        <v>1705.199951171875</v>
       </c>
       <c r="F176" t="n">
-        <v>1711.349975585938</v>
+        <v>1705.199951171875</v>
       </c>
       <c r="G176" t="n">
-        <v>37260774</v>
+        <v>10593512</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45469</v>
+        <v>45475</v>
       </c>
       <c r="B177" t="n">
-        <v>1707.949951171875</v>
+        <v>1715</v>
       </c>
       <c r="C177" t="n">
-        <v>1710.900024414062</v>
+        <v>1734.900024414062</v>
       </c>
       <c r="D177" t="n">
-        <v>1691.099975585938</v>
+        <v>1702.75</v>
       </c>
       <c r="E177" t="n">
-        <v>1701.5</v>
+        <v>1730.599975585938</v>
       </c>
       <c r="F177" t="n">
-        <v>1701.5</v>
+        <v>1730.599975585938</v>
       </c>
       <c r="G177" t="n">
-        <v>23798333</v>
+        <v>22960845</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45470</v>
+        <v>45476</v>
       </c>
       <c r="B178" t="n">
-        <v>1696.099975585938</v>
+        <v>1791</v>
       </c>
       <c r="C178" t="n">
-        <v>1713</v>
+        <v>1794</v>
       </c>
       <c r="D178" t="n">
-        <v>1686.599975585938</v>
+        <v>1764.650024414062</v>
       </c>
       <c r="E178" t="n">
-        <v>1696.150024414062</v>
+        <v>1768.650024414062</v>
       </c>
       <c r="F178" t="n">
-        <v>1696.150024414062</v>
+        <v>1768.650024414062</v>
       </c>
       <c r="G178" t="n">
-        <v>27537325</v>
+        <v>61608901</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45471</v>
+        <v>45477</v>
       </c>
       <c r="B179" t="n">
-        <v>1697.599975585938</v>
+        <v>1759.75</v>
       </c>
       <c r="C179" t="n">
-        <v>1706.599975585938</v>
+        <v>1759.75</v>
       </c>
       <c r="D179" t="n">
-        <v>1679</v>
+        <v>1724.849975585938</v>
       </c>
       <c r="E179" t="n">
-        <v>1683.800048828125</v>
+        <v>1727.150024414062</v>
       </c>
       <c r="F179" t="n">
-        <v>1683.800048828125</v>
+        <v>1727.150024414062</v>
       </c>
       <c r="G179" t="n">
-        <v>13238023</v>
+        <v>22924329</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B180" t="n">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="C180" t="n">
-        <v>1707.300048828125</v>
+        <v>1685</v>
       </c>
       <c r="D180" t="n">
-        <v>1680</v>
+        <v>1642.199951171875</v>
       </c>
       <c r="E180" t="n">
-        <v>1705.199951171875</v>
+        <v>1648.099975585938</v>
       </c>
       <c r="F180" t="n">
-        <v>1705.199951171875</v>
+        <v>1648.099975585938</v>
       </c>
       <c r="G180" t="n">
-        <v>10593512</v>
+        <v>41121274</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B181" t="n">
-        <v>1715</v>
+        <v>1645.300048828125</v>
       </c>
       <c r="C181" t="n">
-        <v>1734.900024414062</v>
+        <v>1654.949951171875</v>
       </c>
       <c r="D181" t="n">
-        <v>1702.75</v>
+        <v>1627.150024414062</v>
       </c>
       <c r="E181" t="n">
-        <v>1730.599975585938</v>
+        <v>1635.349975585938</v>
       </c>
       <c r="F181" t="n">
-        <v>1730.599975585938</v>
+        <v>1635.349975585938</v>
       </c>
       <c r="G181" t="n">
-        <v>22960845</v>
+        <v>19543900</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B182" t="n">
-        <v>1791</v>
+        <v>1625</v>
       </c>
       <c r="C182" t="n">
-        <v>1794</v>
+        <v>1646.699951171875</v>
       </c>
       <c r="D182" t="n">
-        <v>1764.650024414062</v>
+        <v>1620.349975585938</v>
       </c>
       <c r="E182" t="n">
-        <v>1768.650024414062</v>
+        <v>1636.5</v>
       </c>
       <c r="F182" t="n">
-        <v>1768.650024414062</v>
+        <v>1636.5</v>
       </c>
       <c r="G182" t="n">
-        <v>61608901</v>
+        <v>24275439</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45477</v>
+        <v>45483</v>
       </c>
       <c r="B183" t="n">
-        <v>1759.75</v>
+        <v>1629.949951171875</v>
       </c>
       <c r="C183" t="n">
-        <v>1759.75</v>
+        <v>1640</v>
       </c>
       <c r="D183" t="n">
-        <v>1724.849975585938</v>
+        <v>1620.75</v>
       </c>
       <c r="E183" t="n">
-        <v>1727.150024414062</v>
+        <v>1626.099975585938</v>
       </c>
       <c r="F183" t="n">
-        <v>1727.150024414062</v>
+        <v>1626.099975585938</v>
       </c>
       <c r="G183" t="n">
-        <v>22924329</v>
+        <v>22753591</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45478</v>
+        <v>45484</v>
       </c>
       <c r="B184" t="n">
-        <v>1685</v>
+        <v>1623.949951171875</v>
       </c>
       <c r="C184" t="n">
-        <v>1685</v>
+        <v>1625.849975585938</v>
       </c>
       <c r="D184" t="n">
-        <v>1642.199951171875</v>
+        <v>1601</v>
       </c>
       <c r="E184" t="n">
-        <v>1648.099975585938</v>
+        <v>1621.900024414062</v>
       </c>
       <c r="F184" t="n">
-        <v>1648.099975585938</v>
+        <v>1621.900024414062</v>
       </c>
       <c r="G184" t="n">
-        <v>41121274</v>
+        <v>22088537</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45481</v>
+        <v>45485</v>
       </c>
       <c r="B185" t="n">
-        <v>1645.300048828125</v>
+        <v>1622</v>
       </c>
       <c r="C185" t="n">
-        <v>1654.949951171875</v>
+        <v>1638.400024414062</v>
       </c>
       <c r="D185" t="n">
-        <v>1627.150024414062</v>
+        <v>1611.150024414062</v>
       </c>
       <c r="E185" t="n">
-        <v>1635.349975585938</v>
+        <v>1622.699951171875</v>
       </c>
       <c r="F185" t="n">
-        <v>1635.349975585938</v>
+        <v>1622.699951171875</v>
       </c>
       <c r="G185" t="n">
-        <v>19543900</v>
+        <v>28024980</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="B186" t="n">
-        <v>1625</v>
+        <v>1623.5</v>
       </c>
       <c r="C186" t="n">
-        <v>1646.699951171875</v>
+        <v>1629.800048828125</v>
       </c>
       <c r="D186" t="n">
-        <v>1620.349975585938</v>
+        <v>1615.199951171875</v>
       </c>
       <c r="E186" t="n">
-        <v>1636.5</v>
+        <v>1622.099975585938</v>
       </c>
       <c r="F186" t="n">
-        <v>1636.5</v>
+        <v>1622.099975585938</v>
       </c>
       <c r="G186" t="n">
-        <v>24275439</v>
+        <v>16687847</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45483</v>
+        <v>45489</v>
       </c>
       <c r="B187" t="n">
-        <v>1629.949951171875</v>
+        <v>1620.75</v>
       </c>
       <c r="C187" t="n">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="D187" t="n">
-        <v>1620.75</v>
+        <v>1616.800048828125</v>
       </c>
       <c r="E187" t="n">
-        <v>1626.099975585938</v>
+        <v>1619.75</v>
       </c>
       <c r="F187" t="n">
-        <v>1626.099975585938</v>
+        <v>1619.75</v>
       </c>
       <c r="G187" t="n">
-        <v>22753591</v>
+        <v>14475162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B188" t="n">
+        <v>1608</v>
+      </c>
+      <c r="C188" t="n">
         <v>1623.949951171875</v>
       </c>
-      <c r="C188" t="n">
-        <v>1625.849975585938</v>
-      </c>
       <c r="D188" t="n">
-        <v>1601</v>
+        <v>1599.150024414062</v>
       </c>
       <c r="E188" t="n">
-        <v>1621.900024414062</v>
+        <v>1614.800048828125</v>
       </c>
       <c r="F188" t="n">
-        <v>1621.900024414062</v>
+        <v>1614.800048828125</v>
       </c>
       <c r="G188" t="n">
-        <v>22088537</v>
+        <v>16858532</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="B189" t="n">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="C189" t="n">
-        <v>1638.400024414062</v>
+        <v>1623</v>
       </c>
       <c r="D189" t="n">
-        <v>1611.150024414062</v>
+        <v>1603.5</v>
       </c>
       <c r="E189" t="n">
-        <v>1622.699951171875</v>
+        <v>1607.300048828125</v>
       </c>
       <c r="F189" t="n">
-        <v>1622.699951171875</v>
+        <v>1607.300048828125</v>
       </c>
       <c r="G189" t="n">
-        <v>28024980</v>
+        <v>13001076</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="B190" t="n">
-        <v>1623.5</v>
+        <v>1617</v>
       </c>
       <c r="C190" t="n">
-        <v>1629.800048828125</v>
+        <v>1651</v>
       </c>
       <c r="D190" t="n">
-        <v>1615.199951171875</v>
+        <v>1612.650024414062</v>
       </c>
       <c r="E190" t="n">
-        <v>1622.099975585938</v>
+        <v>1642.550048828125</v>
       </c>
       <c r="F190" t="n">
-        <v>1622.099975585938</v>
+        <v>1642.550048828125</v>
       </c>
       <c r="G190" t="n">
-        <v>16687847</v>
+        <v>26872411</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="B191" t="n">
-        <v>1620.75</v>
+        <v>1647.550048828125</v>
       </c>
       <c r="C191" t="n">
-        <v>1627</v>
+        <v>1647.800048828125</v>
       </c>
       <c r="D191" t="n">
-        <v>1616.800048828125</v>
+        <v>1605</v>
       </c>
       <c r="E191" t="n">
-        <v>1619.75</v>
+        <v>1618.400024414062</v>
       </c>
       <c r="F191" t="n">
-        <v>1619.75</v>
+        <v>1618.400024414062</v>
       </c>
       <c r="G191" t="n">
-        <v>14475162</v>
+        <v>26001076</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45491</v>
+        <v>45497</v>
       </c>
       <c r="B192" t="n">
-        <v>1608</v>
+        <v>1608.150024414062</v>
       </c>
       <c r="C192" t="n">
-        <v>1623.949951171875</v>
+        <v>1621</v>
       </c>
       <c r="D192" t="n">
-        <v>1599.150024414062</v>
+        <v>1588.050048828125</v>
       </c>
       <c r="E192" t="n">
-        <v>1614.800048828125</v>
+        <v>1604.050048828125</v>
       </c>
       <c r="F192" t="n">
-        <v>1614.800048828125</v>
+        <v>1604.050048828125</v>
       </c>
       <c r="G192" t="n">
-        <v>16858532</v>
+        <v>30864103</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45492</v>
+        <v>45498</v>
       </c>
       <c r="B193" t="n">
-        <v>1616</v>
+        <v>1593</v>
       </c>
       <c r="C193" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D193" t="n">
-        <v>1603.5</v>
+        <v>1593</v>
       </c>
       <c r="E193" t="n">
-        <v>1607.300048828125</v>
+        <v>1616.599975585938</v>
       </c>
       <c r="F193" t="n">
-        <v>1607.300048828125</v>
+        <v>1616.599975585938</v>
       </c>
       <c r="G193" t="n">
-        <v>13001076</v>
+        <v>12767866</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45495</v>
+        <v>45499</v>
       </c>
       <c r="B194" t="n">
-        <v>1617</v>
+        <v>1605</v>
       </c>
       <c r="C194" t="n">
-        <v>1651</v>
+        <v>1621.75</v>
       </c>
       <c r="D194" t="n">
-        <v>1612.650024414062</v>
+        <v>1596.449951171875</v>
       </c>
       <c r="E194" t="n">
-        <v>1642.550048828125</v>
+        <v>1618.150024414062</v>
       </c>
       <c r="F194" t="n">
-        <v>1642.550048828125</v>
+        <v>1618.150024414062</v>
       </c>
       <c r="G194" t="n">
-        <v>26872411</v>
+        <v>21905270</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45496</v>
+        <v>45502</v>
       </c>
       <c r="B195" t="n">
-        <v>1647.550048828125</v>
+        <v>1615</v>
       </c>
       <c r="C195" t="n">
-        <v>1647.800048828125</v>
+        <v>1631.849975585938</v>
       </c>
       <c r="D195" t="n">
-        <v>1605</v>
+        <v>1598.300048828125</v>
       </c>
       <c r="E195" t="n">
-        <v>1618.400024414062</v>
+        <v>1605.050048828125</v>
       </c>
       <c r="F195" t="n">
-        <v>1618.400024414062</v>
+        <v>1605.050048828125</v>
       </c>
       <c r="G195" t="n">
-        <v>26001076</v>
+        <v>25500574</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45497</v>
+        <v>45503</v>
       </c>
       <c r="B196" t="n">
-        <v>1608.150024414062</v>
+        <v>1602</v>
       </c>
       <c r="C196" t="n">
-        <v>1621</v>
+        <v>1634.75</v>
       </c>
       <c r="D196" t="n">
-        <v>1588.050048828125</v>
+        <v>1599</v>
       </c>
       <c r="E196" t="n">
-        <v>1604.050048828125</v>
+        <v>1615.550048828125</v>
       </c>
       <c r="F196" t="n">
-        <v>1604.050048828125</v>
+        <v>1615.550048828125</v>
       </c>
       <c r="G196" t="n">
-        <v>30864103</v>
+        <v>27297917</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45498</v>
+        <v>45504</v>
       </c>
       <c r="B197" t="n">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="C197" t="n">
-        <v>1625</v>
+        <v>1627.900024414062</v>
       </c>
       <c r="D197" t="n">
-        <v>1593</v>
+        <v>1609.199951171875</v>
       </c>
       <c r="E197" t="n">
-        <v>1616.599975585938</v>
+        <v>1615.75</v>
       </c>
       <c r="F197" t="n">
-        <v>1616.599975585938</v>
+        <v>1615.75</v>
       </c>
       <c r="G197" t="n">
-        <v>12767866</v>
+        <v>18910242</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45499</v>
+        <v>45505</v>
       </c>
       <c r="B198" t="n">
-        <v>1605</v>
+        <v>1622.900024414062</v>
       </c>
       <c r="C198" t="n">
-        <v>1621.75</v>
+        <v>1650.050048828125</v>
       </c>
       <c r="D198" t="n">
-        <v>1596.449951171875</v>
+        <v>1617.949951171875</v>
       </c>
       <c r="E198" t="n">
-        <v>1618.150024414062</v>
+        <v>1638.800048828125</v>
       </c>
       <c r="F198" t="n">
-        <v>1618.150024414062</v>
+        <v>1638.800048828125</v>
       </c>
       <c r="G198" t="n">
-        <v>21905270</v>
+        <v>13107587</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B199" t="n">
-        <v>1615</v>
+        <v>1631</v>
       </c>
       <c r="C199" t="n">
-        <v>1631.849975585938</v>
+        <v>1670.5</v>
       </c>
       <c r="D199" t="n">
-        <v>1598.300048828125</v>
+        <v>1631</v>
       </c>
       <c r="E199" t="n">
-        <v>1605.050048828125</v>
+        <v>1659.150024414062</v>
       </c>
       <c r="F199" t="n">
-        <v>1605.050048828125</v>
+        <v>1659.150024414062</v>
       </c>
       <c r="G199" t="n">
-        <v>25500574</v>
+        <v>22059619</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B200" t="n">
-        <v>1602</v>
+        <v>1640.099975585938</v>
       </c>
       <c r="C200" t="n">
-        <v>1634.75</v>
+        <v>1646</v>
       </c>
       <c r="D200" t="n">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E200" t="n">
-        <v>1615.550048828125</v>
+        <v>1615.75</v>
       </c>
       <c r="F200" t="n">
-        <v>1615.550048828125</v>
+        <v>1615.75</v>
       </c>
       <c r="G200" t="n">
-        <v>27297917</v>
+        <v>20666817</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B201" t="n">
-        <v>1614</v>
+        <v>1630</v>
       </c>
       <c r="C201" t="n">
-        <v>1627.900024414062</v>
+        <v>1632.949951171875</v>
       </c>
       <c r="D201" t="n">
-        <v>1609.199951171875</v>
+        <v>1593.300048828125</v>
       </c>
       <c r="E201" t="n">
-        <v>1615.75</v>
+        <v>1601.199951171875</v>
       </c>
       <c r="F201" t="n">
-        <v>1615.75</v>
+        <v>1601.199951171875</v>
       </c>
       <c r="G201" t="n">
-        <v>18910242</v>
+        <v>22558025</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B202" t="n">
-        <v>1622.900024414062</v>
+        <v>1617</v>
       </c>
       <c r="C202" t="n">
-        <v>1650.050048828125</v>
+        <v>1630</v>
       </c>
       <c r="D202" t="n">
-        <v>1617.949951171875</v>
+        <v>1602.199951171875</v>
       </c>
       <c r="E202" t="n">
-        <v>1638.800048828125</v>
+        <v>1623.5</v>
       </c>
       <c r="F202" t="n">
-        <v>1638.800048828125</v>
+        <v>1623.5</v>
       </c>
       <c r="G202" t="n">
-        <v>13107587</v>
+        <v>21173132</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B203" t="n">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="C203" t="n">
-        <v>1670.5</v>
+        <v>1653.300048828125</v>
       </c>
       <c r="D203" t="n">
-        <v>1631</v>
+        <v>1619.25</v>
       </c>
       <c r="E203" t="n">
-        <v>1659.150024414062</v>
+        <v>1642.699951171875</v>
       </c>
       <c r="F203" t="n">
-        <v>1659.150024414062</v>
+        <v>1642.699951171875</v>
       </c>
       <c r="G203" t="n">
-        <v>22059619</v>
+        <v>16988475</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="B204" t="n">
-        <v>1640.099975585938</v>
+        <v>1652</v>
       </c>
       <c r="C204" t="n">
-        <v>1646</v>
+        <v>1662.550048828125</v>
       </c>
       <c r="D204" t="n">
-        <v>1601</v>
+        <v>1645.800048828125</v>
       </c>
       <c r="E204" t="n">
-        <v>1615.75</v>
+        <v>1650.199951171875</v>
       </c>
       <c r="F204" t="n">
-        <v>1615.75</v>
+        <v>1650.199951171875</v>
       </c>
       <c r="G204" t="n">
-        <v>20666817</v>
+        <v>13322309</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B205" t="n">
-        <v>1630</v>
+        <v>1652</v>
       </c>
       <c r="C205" t="n">
-        <v>1632.949951171875</v>
+        <v>1675.949951171875</v>
       </c>
       <c r="D205" t="n">
-        <v>1593.300048828125</v>
+        <v>1647.349975585938</v>
       </c>
       <c r="E205" t="n">
-        <v>1601.199951171875</v>
+        <v>1660.099975585938</v>
       </c>
       <c r="F205" t="n">
-        <v>1601.199951171875</v>
+        <v>1660.099975585938</v>
       </c>
       <c r="G205" t="n">
-        <v>22558025</v>
+        <v>19658098</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B206" t="n">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="C206" t="n">
-        <v>1630</v>
+        <v>1632.400024414062</v>
       </c>
       <c r="D206" t="n">
-        <v>1602.199951171875</v>
+        <v>1601.150024414062</v>
       </c>
       <c r="E206" t="n">
-        <v>1623.5</v>
+        <v>1603.199951171875</v>
       </c>
       <c r="F206" t="n">
-        <v>1623.5</v>
+        <v>1603.199951171875</v>
       </c>
       <c r="G206" t="n">
-        <v>21173132</v>
+        <v>27027521</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B207" t="n">
-        <v>1624</v>
+        <v>1606.5</v>
       </c>
       <c r="C207" t="n">
-        <v>1653.300048828125</v>
+        <v>1613.699951171875</v>
       </c>
       <c r="D207" t="n">
-        <v>1619.25</v>
+        <v>1603.199951171875</v>
       </c>
       <c r="E207" t="n">
-        <v>1642.699951171875</v>
+        <v>1607.800048828125</v>
       </c>
       <c r="F207" t="n">
-        <v>1642.699951171875</v>
+        <v>1607.800048828125</v>
       </c>
       <c r="G207" t="n">
-        <v>16988475</v>
+        <v>16167214</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="B208" t="n">
-        <v>1652</v>
+        <v>1628.5</v>
       </c>
       <c r="C208" t="n">
-        <v>1662.550048828125</v>
+        <v>1634.150024414062</v>
       </c>
       <c r="D208" t="n">
-        <v>1645.800048828125</v>
+        <v>1611</v>
       </c>
       <c r="E208" t="n">
-        <v>1650.199951171875</v>
+        <v>1632.099975585938</v>
       </c>
       <c r="F208" t="n">
-        <v>1650.199951171875</v>
+        <v>1632.099975585938</v>
       </c>
       <c r="G208" t="n">
-        <v>13322309</v>
+        <v>13924623</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="B209" t="n">
-        <v>1652</v>
+        <v>1637.650024414062</v>
       </c>
       <c r="C209" t="n">
-        <v>1675.949951171875</v>
+        <v>1637.650024414062</v>
       </c>
       <c r="D209" t="n">
-        <v>1647.349975585938</v>
+        <v>1623.699951171875</v>
       </c>
       <c r="E209" t="n">
-        <v>1660.099975585938</v>
+        <v>1631.550048828125</v>
       </c>
       <c r="F209" t="n">
-        <v>1660.099975585938</v>
+        <v>1631.550048828125</v>
       </c>
       <c r="G209" t="n">
-        <v>19658098</v>
+        <v>9751082</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="B210" t="n">
-        <v>1628</v>
+        <v>1627.449951171875</v>
       </c>
       <c r="C210" t="n">
-        <v>1632.400024414062</v>
+        <v>1646</v>
       </c>
       <c r="D210" t="n">
-        <v>1601.150024414062</v>
+        <v>1627.449951171875</v>
       </c>
       <c r="E210" t="n">
-        <v>1603.199951171875</v>
+        <v>1637.699951171875</v>
       </c>
       <c r="F210" t="n">
-        <v>1603.199951171875</v>
+        <v>1637.699951171875</v>
       </c>
       <c r="G210" t="n">
-        <v>27027521</v>
+        <v>15567247</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="B211" t="n">
-        <v>1606.5</v>
+        <v>1628.099975585938</v>
       </c>
       <c r="C211" t="n">
-        <v>1613.699951171875</v>
+        <v>1634.550048828125</v>
       </c>
       <c r="D211" t="n">
-        <v>1603.199951171875</v>
+        <v>1617.800048828125</v>
       </c>
       <c r="E211" t="n">
-        <v>1607.800048828125</v>
+        <v>1625.800048828125</v>
       </c>
       <c r="F211" t="n">
-        <v>1607.800048828125</v>
+        <v>1625.800048828125</v>
       </c>
       <c r="G211" t="n">
-        <v>16167214</v>
+        <v>23815452</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45520</v>
+        <v>45526</v>
       </c>
       <c r="B212" t="n">
-        <v>1628.5</v>
+        <v>1632</v>
       </c>
       <c r="C212" t="n">
-        <v>1634.150024414062</v>
+        <v>1638.300048828125</v>
       </c>
       <c r="D212" t="n">
-        <v>1611</v>
+        <v>1628</v>
       </c>
       <c r="E212" t="n">
-        <v>1632.099975585938</v>
+        <v>1631.300048828125</v>
       </c>
       <c r="F212" t="n">
-        <v>1632.099975585938</v>
+        <v>1631.300048828125</v>
       </c>
       <c r="G212" t="n">
-        <v>13924623</v>
+        <v>10650319</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45523</v>
+        <v>45527</v>
       </c>
       <c r="B213" t="n">
-        <v>1637.650024414062</v>
+        <v>1634</v>
       </c>
       <c r="C213" t="n">
-        <v>1637.650024414062</v>
+        <v>1634</v>
       </c>
       <c r="D213" t="n">
-        <v>1623.699951171875</v>
+        <v>1623</v>
       </c>
       <c r="E213" t="n">
-        <v>1631.550048828125</v>
+        <v>1625.050048828125</v>
       </c>
       <c r="F213" t="n">
-        <v>1631.550048828125</v>
+        <v>1625.050048828125</v>
       </c>
       <c r="G213" t="n">
-        <v>9751082</v>
+        <v>10166711</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="B214" t="n">
-        <v>1627.449951171875</v>
+        <v>1632.199951171875</v>
       </c>
       <c r="C214" t="n">
-        <v>1646</v>
+        <v>1647.949951171875</v>
       </c>
       <c r="D214" t="n">
-        <v>1627.449951171875</v>
+        <v>1632.199951171875</v>
       </c>
       <c r="E214" t="n">
-        <v>1637.699951171875</v>
+        <v>1639.949951171875</v>
       </c>
       <c r="F214" t="n">
-        <v>1637.699951171875</v>
+        <v>1639.949951171875</v>
       </c>
       <c r="G214" t="n">
-        <v>15567247</v>
+        <v>11182133</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45525</v>
+        <v>45531</v>
       </c>
       <c r="B215" t="n">
-        <v>1628.099975585938</v>
+        <v>1643.400024414062</v>
       </c>
       <c r="C215" t="n">
-        <v>1634.550048828125</v>
+        <v>1647.400024414062</v>
       </c>
       <c r="D215" t="n">
-        <v>1617.800048828125</v>
+        <v>1632.199951171875</v>
       </c>
       <c r="E215" t="n">
-        <v>1625.800048828125</v>
+        <v>1637.75</v>
       </c>
       <c r="F215" t="n">
-        <v>1625.800048828125</v>
+        <v>1637.75</v>
       </c>
       <c r="G215" t="n">
-        <v>23815452</v>
+        <v>17886622</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45526</v>
+        <v>45532</v>
       </c>
       <c r="B216" t="n">
-        <v>1632</v>
+        <v>1637.75</v>
       </c>
       <c r="C216" t="n">
-        <v>1638.300048828125</v>
+        <v>1639.75</v>
       </c>
       <c r="D216" t="n">
-        <v>1628</v>
+        <v>1630.199951171875</v>
       </c>
       <c r="E216" t="n">
-        <v>1631.300048828125</v>
+        <v>1637.099975585938</v>
       </c>
       <c r="F216" t="n">
-        <v>1631.300048828125</v>
+        <v>1637.099975585938</v>
       </c>
       <c r="G216" t="n">
-        <v>10650319</v>
+        <v>13460594</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45527</v>
+        <v>45533</v>
       </c>
       <c r="B217" t="n">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="C217" t="n">
-        <v>1634</v>
+        <v>1644.400024414062</v>
       </c>
       <c r="D217" t="n">
-        <v>1623</v>
+        <v>1631.150024414062</v>
       </c>
       <c r="E217" t="n">
-        <v>1625.050048828125</v>
+        <v>1638.550048828125</v>
       </c>
       <c r="F217" t="n">
-        <v>1625.050048828125</v>
+        <v>1638.550048828125</v>
       </c>
       <c r="G217" t="n">
-        <v>10166711</v>
+        <v>24526302</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="B218" t="n">
-        <v>1632.199951171875</v>
+        <v>1656</v>
       </c>
       <c r="C218" t="n">
-        <v>1647.949951171875</v>
+        <v>1662</v>
       </c>
       <c r="D218" t="n">
-        <v>1632.199951171875</v>
+        <v>1621.150024414062</v>
       </c>
       <c r="E218" t="n">
-        <v>1639.949951171875</v>
+        <v>1636.900024414062</v>
       </c>
       <c r="F218" t="n">
-        <v>1639.949951171875</v>
+        <v>1636.900024414062</v>
       </c>
       <c r="G218" t="n">
-        <v>11182133</v>
+        <v>222671050</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45531</v>
+        <v>45537</v>
       </c>
       <c r="B219" t="n">
-        <v>1643.400024414062</v>
+        <v>1646.800048828125</v>
       </c>
       <c r="C219" t="n">
-        <v>1647.400024414062</v>
+        <v>1646.800048828125</v>
       </c>
       <c r="D219" t="n">
-        <v>1632.199951171875</v>
+        <v>1623.199951171875</v>
       </c>
       <c r="E219" t="n">
-        <v>1637.75</v>
+        <v>1626.949951171875</v>
       </c>
       <c r="F219" t="n">
-        <v>1637.75</v>
+        <v>1626.949951171875</v>
       </c>
       <c r="G219" t="n">
-        <v>17886622</v>
+        <v>17024840</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B220" t="n">
-        <v>1637.75</v>
+        <v>1634</v>
       </c>
       <c r="C220" t="n">
-        <v>1639.75</v>
+        <v>1639.949951171875</v>
       </c>
       <c r="D220" t="n">
-        <v>1630.199951171875</v>
+        <v>1624.599975585938</v>
       </c>
       <c r="E220" t="n">
-        <v>1637.099975585938</v>
+        <v>1637.349975585938</v>
       </c>
       <c r="F220" t="n">
-        <v>1637.099975585938</v>
+        <v>1637.349975585938</v>
       </c>
       <c r="G220" t="n">
-        <v>13460594</v>
+        <v>18641430</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B221" t="n">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C221" t="n">
-        <v>1644.400024414062</v>
+        <v>1644.800048828125</v>
       </c>
       <c r="D221" t="n">
-        <v>1631.150024414062</v>
+        <v>1632</v>
       </c>
       <c r="E221" t="n">
-        <v>1638.550048828125</v>
+        <v>1641.800048828125</v>
       </c>
       <c r="F221" t="n">
-        <v>1638.550048828125</v>
+        <v>1641.800048828125</v>
       </c>
       <c r="G221" t="n">
-        <v>24526302</v>
+        <v>12341372</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B222" t="n">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="C222" t="n">
-        <v>1662</v>
+        <v>1649.900024414062</v>
       </c>
       <c r="D222" t="n">
-        <v>1621.150024414062</v>
+        <v>1642</v>
       </c>
       <c r="E222" t="n">
-        <v>1636.900024414062</v>
+        <v>1645.449951171875</v>
       </c>
       <c r="F222" t="n">
-        <v>1636.900024414062</v>
+        <v>1645.449951171875</v>
       </c>
       <c r="G222" t="n">
-        <v>222671050</v>
+        <v>11438159</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45537</v>
+        <v>45541</v>
       </c>
       <c r="B223" t="n">
-        <v>1646.800048828125</v>
+        <v>1638.300048828125</v>
       </c>
       <c r="C223" t="n">
-        <v>1646.800048828125</v>
+        <v>1647.75</v>
       </c>
       <c r="D223" t="n">
-        <v>1623.199951171875</v>
+        <v>1634.099975585938</v>
       </c>
       <c r="E223" t="n">
-        <v>1626.949951171875</v>
+        <v>1636.949951171875</v>
       </c>
       <c r="F223" t="n">
-        <v>1626.949951171875</v>
+        <v>1636.949951171875</v>
       </c>
       <c r="G223" t="n">
-        <v>17024840</v>
+        <v>13014801</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45538</v>
+        <v>45544</v>
       </c>
       <c r="B224" t="n">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="C224" t="n">
-        <v>1639.949951171875</v>
+        <v>1648.5</v>
       </c>
       <c r="D224" t="n">
-        <v>1624.599975585938</v>
+        <v>1630.099975585938</v>
       </c>
       <c r="E224" t="n">
-        <v>1637.349975585938</v>
+        <v>1646.5</v>
       </c>
       <c r="F224" t="n">
-        <v>1637.349975585938</v>
+        <v>1646.5</v>
       </c>
       <c r="G224" t="n">
-        <v>18641430</v>
+        <v>11896457</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45539</v>
+        <v>45545</v>
       </c>
       <c r="B225" t="n">
-        <v>1639</v>
+        <v>1654</v>
       </c>
       <c r="C225" t="n">
-        <v>1644.800048828125</v>
+        <v>1654</v>
       </c>
       <c r="D225" t="n">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="E225" t="n">
-        <v>1641.800048828125</v>
+        <v>1650.349975585938</v>
       </c>
       <c r="F225" t="n">
-        <v>1641.800048828125</v>
+        <v>1650.349975585938</v>
       </c>
       <c r="G225" t="n">
-        <v>12341372</v>
+        <v>13303323</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45540</v>
+        <v>45546</v>
       </c>
       <c r="B226" t="n">
-        <v>1646</v>
+        <v>1650.400024414062</v>
       </c>
       <c r="C226" t="n">
-        <v>1649.900024414062</v>
+        <v>1652.5</v>
       </c>
       <c r="D226" t="n">
-        <v>1642</v>
+        <v>1639.199951171875</v>
       </c>
       <c r="E226" t="n">
-        <v>1645.449951171875</v>
+        <v>1643.900024414062</v>
       </c>
       <c r="F226" t="n">
-        <v>1645.449951171875</v>
+        <v>1643.900024414062</v>
       </c>
       <c r="G226" t="n">
-        <v>11438159</v>
+        <v>11113342</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45541</v>
+        <v>45547</v>
       </c>
       <c r="B227" t="n">
-        <v>1638.300048828125</v>
+        <v>1654</v>
       </c>
       <c r="C227" t="n">
-        <v>1647.75</v>
+        <v>1670</v>
       </c>
       <c r="D227" t="n">
-        <v>1634.099975585938</v>
+        <v>1647.050048828125</v>
       </c>
       <c r="E227" t="n">
-        <v>1636.949951171875</v>
+        <v>1666.599975585938</v>
       </c>
       <c r="F227" t="n">
-        <v>1636.949951171875</v>
+        <v>1666.599975585938</v>
       </c>
       <c r="G227" t="n">
-        <v>13014801</v>
+        <v>16212023</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45544</v>
+        <v>45548</v>
       </c>
       <c r="B228" t="n">
-        <v>1638</v>
+        <v>1674</v>
       </c>
       <c r="C228" t="n">
-        <v>1648.5</v>
+        <v>1674</v>
       </c>
       <c r="D228" t="n">
-        <v>1630.099975585938</v>
+        <v>1657.050048828125</v>
       </c>
       <c r="E228" t="n">
-        <v>1646.5</v>
+        <v>1665.949951171875</v>
       </c>
       <c r="F228" t="n">
-        <v>1646.5</v>
+        <v>1665.949951171875</v>
       </c>
       <c r="G228" t="n">
-        <v>11896457</v>
+        <v>11930266</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45545</v>
+        <v>45551</v>
       </c>
       <c r="B229" t="n">
-        <v>1654</v>
+        <v>1667</v>
       </c>
       <c r="C229" t="n">
-        <v>1654</v>
+        <v>1677.800048828125</v>
       </c>
       <c r="D229" t="n">
-        <v>1638</v>
+        <v>1664.050048828125</v>
       </c>
       <c r="E229" t="n">
-        <v>1650.349975585938</v>
+        <v>1670.949951171875</v>
       </c>
       <c r="F229" t="n">
-        <v>1650.349975585938</v>
+        <v>1670.949951171875</v>
       </c>
       <c r="G229" t="n">
-        <v>13303323</v>
+        <v>7586410</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45546</v>
+        <v>45552</v>
       </c>
       <c r="B230" t="n">
-        <v>1650.400024414062</v>
+        <v>1678</v>
       </c>
       <c r="C230" t="n">
-        <v>1652.5</v>
+        <v>1678</v>
       </c>
       <c r="D230" t="n">
-        <v>1639.199951171875</v>
+        <v>1664.150024414062</v>
       </c>
       <c r="E230" t="n">
-        <v>1643.900024414062</v>
+        <v>1668.800048828125</v>
       </c>
       <c r="F230" t="n">
-        <v>1643.900024414062</v>
+        <v>1668.800048828125</v>
       </c>
       <c r="G230" t="n">
-        <v>11113342</v>
+        <v>10063561</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45547</v>
+        <v>45553</v>
       </c>
       <c r="B231" t="n">
-        <v>1654</v>
+        <v>1671.849975585938</v>
       </c>
       <c r="C231" t="n">
-        <v>1670</v>
+        <v>1698.900024414062</v>
       </c>
       <c r="D231" t="n">
-        <v>1647.050048828125</v>
+        <v>1671.099975585938</v>
       </c>
       <c r="E231" t="n">
-        <v>1666.599975585938</v>
+        <v>1694.800048828125</v>
       </c>
       <c r="F231" t="n">
-        <v>1666.599975585938</v>
+        <v>1694.800048828125</v>
       </c>
       <c r="G231" t="n">
-        <v>16212023</v>
+        <v>20458671</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45548</v>
+        <v>45554</v>
       </c>
       <c r="B232" t="n">
-        <v>1674</v>
+        <v>1699.199951171875</v>
       </c>
       <c r="C232" t="n">
-        <v>1674</v>
+        <v>1719</v>
       </c>
       <c r="D232" t="n">
-        <v>1657.050048828125</v>
+        <v>1699.150024414062</v>
       </c>
       <c r="E232" t="n">
-        <v>1665.949951171875</v>
+        <v>1708.5</v>
       </c>
       <c r="F232" t="n">
-        <v>1665.949951171875</v>
+        <v>1708.5</v>
       </c>
       <c r="G232" t="n">
-        <v>11930266</v>
+        <v>15325888</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45551</v>
+        <v>45555</v>
       </c>
       <c r="B233" t="n">
-        <v>1667</v>
+        <v>1716.5</v>
       </c>
       <c r="C233" t="n">
-        <v>1677.800048828125</v>
+        <v>1744.949951171875</v>
       </c>
       <c r="D233" t="n">
-        <v>1664.050048828125</v>
+        <v>1707.550048828125</v>
       </c>
       <c r="E233" t="n">
-        <v>1670.949951171875</v>
+        <v>1741.199951171875</v>
       </c>
       <c r="F233" t="n">
-        <v>1670.949951171875</v>
+        <v>1741.199951171875</v>
       </c>
       <c r="G233" t="n">
-        <v>7586410</v>
+        <v>30311693</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45552</v>
+        <v>45558</v>
       </c>
       <c r="B234" t="n">
-        <v>1678</v>
+        <v>1749</v>
       </c>
       <c r="C234" t="n">
-        <v>1678</v>
+        <v>1766.349975585938</v>
       </c>
       <c r="D234" t="n">
-        <v>1664.150024414062</v>
+        <v>1740.25</v>
       </c>
       <c r="E234" t="n">
-        <v>1668.800048828125</v>
+        <v>1759.800048828125</v>
       </c>
       <c r="F234" t="n">
-        <v>1668.800048828125</v>
+        <v>1759.800048828125</v>
       </c>
       <c r="G234" t="n">
-        <v>10063561</v>
+        <v>13482675</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45553</v>
+        <v>45559</v>
       </c>
       <c r="B235" t="n">
-        <v>1671.849975585938</v>
+        <v>1765</v>
       </c>
       <c r="C235" t="n">
-        <v>1698.900024414062</v>
+        <v>1781.650024414062</v>
       </c>
       <c r="D235" t="n">
-        <v>1671.099975585938</v>
+        <v>1754.25</v>
       </c>
       <c r="E235" t="n">
-        <v>1694.800048828125</v>
+        <v>1768.050048828125</v>
       </c>
       <c r="F235" t="n">
-        <v>1694.800048828125</v>
+        <v>1768.050048828125</v>
       </c>
       <c r="G235" t="n">
-        <v>20458671</v>
+        <v>16519518</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45554</v>
+        <v>45560</v>
       </c>
       <c r="B236" t="n">
-        <v>1699.199951171875</v>
+        <v>1760.150024414062</v>
       </c>
       <c r="C236" t="n">
-        <v>1719</v>
+        <v>1788</v>
       </c>
       <c r="D236" t="n">
-        <v>1699.150024414062</v>
+        <v>1760.150024414062</v>
       </c>
       <c r="E236" t="n">
-        <v>1708.5</v>
+        <v>1779.099975585938</v>
       </c>
       <c r="F236" t="n">
-        <v>1708.5</v>
+        <v>1779.099975585938</v>
       </c>
       <c r="G236" t="n">
-        <v>15325888</v>
+        <v>15982656</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45555</v>
+        <v>45561</v>
       </c>
       <c r="B237" t="n">
-        <v>1716.5</v>
+        <v>1773.050048828125</v>
       </c>
       <c r="C237" t="n">
-        <v>1744.949951171875</v>
+        <v>1788</v>
       </c>
       <c r="D237" t="n">
-        <v>1707.550048828125</v>
+        <v>1768.050048828125</v>
       </c>
       <c r="E237" t="n">
-        <v>1741.199951171875</v>
+        <v>1783.449951171875</v>
       </c>
       <c r="F237" t="n">
-        <v>1741.199951171875</v>
+        <v>1783.449951171875</v>
       </c>
       <c r="G237" t="n">
-        <v>30311693</v>
+        <v>15949822</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45558</v>
+        <v>45562</v>
       </c>
       <c r="B238" t="n">
-        <v>1749</v>
+        <v>1777</v>
       </c>
       <c r="C238" t="n">
-        <v>1766.349975585938</v>
+        <v>1778.199951171875</v>
       </c>
       <c r="D238" t="n">
-        <v>1740.25</v>
+        <v>1750</v>
       </c>
       <c r="E238" t="n">
-        <v>1759.800048828125</v>
+        <v>1752.650024414062</v>
       </c>
       <c r="F238" t="n">
-        <v>1759.800048828125</v>
+        <v>1752.650024414062</v>
       </c>
       <c r="G238" t="n">
-        <v>13482675</v>
+        <v>17806751</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45559</v>
+        <v>45565</v>
       </c>
       <c r="B239" t="n">
-        <v>1765</v>
+        <v>1748.800048828125</v>
       </c>
       <c r="C239" t="n">
-        <v>1781.650024414062</v>
+        <v>1751.449951171875</v>
       </c>
       <c r="D239" t="n">
-        <v>1754.25</v>
+        <v>1724.400024414062</v>
       </c>
       <c r="E239" t="n">
-        <v>1768.050048828125</v>
+        <v>1732.050048828125</v>
       </c>
       <c r="F239" t="n">
-        <v>1768.050048828125</v>
+        <v>1732.050048828125</v>
       </c>
       <c r="G239" t="n">
-        <v>16519518</v>
+        <v>13191767</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45560</v>
+        <v>45566</v>
       </c>
       <c r="B240" t="n">
-        <v>1760.150024414062</v>
+        <v>1724</v>
       </c>
       <c r="C240" t="n">
-        <v>1788</v>
+        <v>1742</v>
       </c>
       <c r="D240" t="n">
-        <v>1760.150024414062</v>
+        <v>1720.099975585938</v>
       </c>
       <c r="E240" t="n">
-        <v>1779.099975585938</v>
+        <v>1726.199951171875</v>
       </c>
       <c r="F240" t="n">
-        <v>1779.099975585938</v>
+        <v>1726.199951171875</v>
       </c>
       <c r="G240" t="n">
-        <v>15982656</v>
+        <v>12286142</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45561</v>
+        <v>45568</v>
       </c>
       <c r="B241" t="n">
-        <v>1773.050048828125</v>
+        <v>1715.650024414062</v>
       </c>
       <c r="C241" t="n">
-        <v>1788</v>
+        <v>1726.150024414062</v>
       </c>
       <c r="D241" t="n">
-        <v>1768.050048828125</v>
+        <v>1673.349975585938</v>
       </c>
       <c r="E241" t="n">
-        <v>1783.449951171875</v>
+        <v>1682</v>
       </c>
       <c r="F241" t="n">
-        <v>1783.449951171875</v>
+        <v>1682</v>
       </c>
       <c r="G241" t="n">
-        <v>15949822</v>
+        <v>24236699</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45562</v>
+        <v>45569</v>
       </c>
       <c r="B242" t="n">
-        <v>1777</v>
+        <v>1674.5</v>
       </c>
       <c r="C242" t="n">
-        <v>1778.199951171875</v>
+        <v>1690.650024414062</v>
       </c>
       <c r="D242" t="n">
-        <v>1750</v>
+        <v>1653</v>
       </c>
       <c r="E242" t="n">
-        <v>1752.650024414062</v>
+        <v>1657.650024414062</v>
       </c>
       <c r="F242" t="n">
-        <v>1752.650024414062</v>
+        <v>1657.650024414062</v>
       </c>
       <c r="G242" t="n">
-        <v>17806751</v>
+        <v>24341616</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45565</v>
+        <v>45572</v>
       </c>
       <c r="B243" t="n">
-        <v>1748.800048828125</v>
+        <v>1652.199951171875</v>
       </c>
       <c r="C243" t="n">
-        <v>1751.449951171875</v>
+        <v>1659</v>
       </c>
       <c r="D243" t="n">
-        <v>1724.400024414062</v>
+        <v>1613</v>
       </c>
       <c r="E243" t="n">
-        <v>1732.050048828125</v>
+        <v>1617.800048828125</v>
       </c>
       <c r="F243" t="n">
-        <v>1732.050048828125</v>
+        <v>1617.800048828125</v>
       </c>
       <c r="G243" t="n">
-        <v>13191767</v>
+        <v>47229148</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45566</v>
+        <v>45573</v>
       </c>
       <c r="B244" t="n">
-        <v>1724</v>
+        <v>1630</v>
       </c>
       <c r="C244" t="n">
-        <v>1742</v>
+        <v>1656.800048828125</v>
       </c>
       <c r="D244" t="n">
-        <v>1720.099975585938</v>
+        <v>1622</v>
       </c>
       <c r="E244" t="n">
-        <v>1726.199951171875</v>
+        <v>1651.050048828125</v>
       </c>
       <c r="F244" t="n">
-        <v>1726.199951171875</v>
+        <v>1651.050048828125</v>
       </c>
       <c r="G244" t="n">
-        <v>12286142</v>
+        <v>14867203</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45568</v>
+        <v>45574</v>
       </c>
       <c r="B245" t="n">
-        <v>1715.650024414062</v>
+        <v>1649.5</v>
       </c>
       <c r="C245" t="n">
-        <v>1726.150024414062</v>
+        <v>1656.75</v>
       </c>
       <c r="D245" t="n">
-        <v>1673.349975585938</v>
+        <v>1628.699951171875</v>
       </c>
       <c r="E245" t="n">
-        <v>1682</v>
+        <v>1633.150024414062</v>
       </c>
       <c r="F245" t="n">
-        <v>1682</v>
+        <v>1633.150024414062</v>
       </c>
       <c r="G245" t="n">
-        <v>24236699</v>
+        <v>20562821</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45569</v>
+        <v>45575</v>
       </c>
       <c r="B246" t="n">
-        <v>1674.5</v>
+        <v>1639</v>
       </c>
       <c r="C246" t="n">
-        <v>1690.650024414062</v>
+        <v>1665.449951171875</v>
       </c>
       <c r="D246" t="n">
-        <v>1653</v>
+        <v>1632.5</v>
       </c>
       <c r="E246" t="n">
-        <v>1657.650024414062</v>
+        <v>1662.400024414062</v>
       </c>
       <c r="F246" t="n">
-        <v>1657.650024414062</v>
+        <v>1662.400024414062</v>
       </c>
       <c r="G246" t="n">
-        <v>24341616</v>
+        <v>10877383</v>
       </c>
     </row>
   </sheetData>
